--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.004035153701248419</v>
+        <v>-0.693621257896939</v>
       </c>
       <c r="C2">
-        <v>0.00174309108300108</v>
+        <v>0.1339854639704074</v>
       </c>
       <c r="D2">
-        <v>-0.002015447400579587</v>
+        <v>-0.2298841047512481</v>
       </c>
       <c r="E2">
-        <v>-0.00487275392238257</v>
+        <v>-0.6628265942840734</v>
       </c>
       <c r="F2">
-        <v>-0.003919259919013724</v>
+        <v>-0.5784387560777187</v>
       </c>
       <c r="G2">
-        <v>-0.003763035688144021</v>
+        <v>-0.2003493809701326</v>
       </c>
       <c r="H2">
-        <v>-0.002435562448296075</v>
+        <v>0.03077542693847405</v>
       </c>
       <c r="I2">
-        <v>0.003311946568852927</v>
+        <v>0.714940444325122</v>
       </c>
       <c r="J2">
-        <v>-0.001087568772000004</v>
+        <v>-0.6621843361394131</v>
       </c>
       <c r="K2">
-        <v>-0.000745674640192523</v>
+        <v>-0.2145491706873382</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4760757527781298</v>
+        <v>-0.3990445117215441</v>
       </c>
       <c r="C3">
-        <v>0.124134531891654</v>
+        <v>0.1746515314907279</v>
       </c>
       <c r="D3">
-        <v>-0.4279208191010444</v>
+        <v>-0.1891601996955553</v>
       </c>
       <c r="E3">
-        <v>-0.711539982583997</v>
+        <v>-0.4792191557967379</v>
       </c>
       <c r="F3">
-        <v>-0.7424978803331462</v>
+        <v>-0.3662480783318631</v>
       </c>
       <c r="G3">
-        <v>-0.22256951223174</v>
+        <v>-0.2354558451658292</v>
       </c>
       <c r="H3">
-        <v>-0.1966245761615944</v>
+        <v>-0.138369233924287</v>
       </c>
       <c r="I3">
-        <v>0.4758787591160928</v>
+        <v>0.366330653173265</v>
       </c>
       <c r="J3">
-        <v>-1.00384195503149</v>
+        <v>-0.1912367005561551</v>
       </c>
       <c r="K3">
-        <v>-0.5415217305893463</v>
+        <v>-0.1891637843647603</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4206724698041402</v>
+        <v>-0.4067790986720184</v>
       </c>
       <c r="C4">
-        <v>0.0618577296025663</v>
+        <v>0.1270316582017552</v>
       </c>
       <c r="D4">
-        <v>-0.4030899361785269</v>
+        <v>-0.1489934360294792</v>
       </c>
       <c r="E4">
-        <v>-0.9901949850075966</v>
+        <v>-0.3938317565981233</v>
       </c>
       <c r="F4">
-        <v>-0.6998979879658285</v>
+        <v>-0.3429949162120454</v>
       </c>
       <c r="G4">
-        <v>-0.2996136522131035</v>
+        <v>-0.2007927366258273</v>
       </c>
       <c r="H4">
-        <v>-0.1905002206664831</v>
+        <v>-0.01785078556170348</v>
       </c>
       <c r="I4">
-        <v>0.4783072269839919</v>
+        <v>0.5548344789370603</v>
       </c>
       <c r="J4">
-        <v>-1.32468679062425</v>
+        <v>-0.3040756625686403</v>
       </c>
       <c r="K4">
-        <v>-0.448071376105825</v>
+        <v>-0.1300282283888025</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2514978666676421</v>
+        <v>-0.7908110348644874</v>
       </c>
       <c r="C5">
-        <v>0.1074690013584603</v>
+        <v>0.1070054017727878</v>
       </c>
       <c r="D5">
-        <v>-0.1393296210207148</v>
+        <v>-0.5107113762585921</v>
       </c>
       <c r="E5">
-        <v>-0.3336038728032284</v>
+        <v>-0.8301838790329479</v>
       </c>
       <c r="F5">
-        <v>-0.2552320940869121</v>
+        <v>-0.5400344836436652</v>
       </c>
       <c r="G5">
-        <v>-0.1306346740148983</v>
+        <v>-0.07394727172204575</v>
       </c>
       <c r="H5">
-        <v>-0.07150760109407281</v>
+        <v>0.01542333499997105</v>
       </c>
       <c r="I5">
-        <v>0.1412224820920607</v>
+        <v>0.5648050720492173</v>
       </c>
       <c r="J5">
-        <v>-0.06587156761738404</v>
+        <v>-0.8545490035128008</v>
       </c>
       <c r="K5">
-        <v>-0.03907736647817105</v>
+        <v>-0.2874088148974793</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4695703576177306</v>
+        <v>-0.4097277937750064</v>
       </c>
       <c r="C6">
-        <v>0.22620704712645</v>
+        <v>0.01763063664701821</v>
       </c>
       <c r="D6">
-        <v>-0.2939180336628164</v>
+        <v>-0.2681366636783877</v>
       </c>
       <c r="E6">
-        <v>-0.7326614793098158</v>
+        <v>-0.4661088937327793</v>
       </c>
       <c r="F6">
-        <v>-0.6063792101848002</v>
+        <v>-0.2880204696530175</v>
       </c>
       <c r="G6">
-        <v>-0.2971319906112096</v>
+        <v>-0.2003362512219249</v>
       </c>
       <c r="H6">
-        <v>-0.1272528287543588</v>
+        <v>-0.03340743907679085</v>
       </c>
       <c r="I6">
-        <v>0.5444889053715964</v>
+        <v>0.4347865894670588</v>
       </c>
       <c r="J6">
-        <v>-0.6548811422572643</v>
+        <v>-0.3346473663862344</v>
       </c>
       <c r="K6">
-        <v>-0.4424469273941708</v>
+        <v>-0.1894648160394791</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2164343405280347</v>
+        <v>-0.553446127044342</v>
       </c>
       <c r="C7">
-        <v>0.08652860751343611</v>
+        <v>0.1999204806005369</v>
       </c>
       <c r="D7">
-        <v>-0.07979794242584098</v>
+        <v>-0.3376447107224928</v>
       </c>
       <c r="E7">
-        <v>-0.2548603594389303</v>
+        <v>-0.7893062267189905</v>
       </c>
       <c r="F7">
-        <v>-0.2615010842319506</v>
+        <v>-0.3668640086179113</v>
       </c>
       <c r="G7">
-        <v>-0.1587837014940251</v>
+        <v>-0.2868456716046268</v>
       </c>
       <c r="H7">
-        <v>-0.08687624496452477</v>
+        <v>-0.02448102361683042</v>
       </c>
       <c r="I7">
-        <v>0.1676935142246666</v>
+        <v>0.531018185179162</v>
       </c>
       <c r="J7">
-        <v>-0.07852242939028589</v>
+        <v>-0.1812899261331357</v>
       </c>
       <c r="K7">
-        <v>-0.003649162569365686</v>
+        <v>-0.3177445078653188</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5669557780188961</v>
+        <v>-0.6266583628920243</v>
       </c>
       <c r="C8">
-        <v>0.2401048360587572</v>
+        <v>0.3963842356093781</v>
       </c>
       <c r="D8">
-        <v>-0.4566981595847466</v>
+        <v>-0.3382839364053337</v>
       </c>
       <c r="E8">
-        <v>-1.059514495132836</v>
+        <v>-0.6755199195957224</v>
       </c>
       <c r="F8">
-        <v>-0.5553070696498816</v>
+        <v>-0.4498063921990386</v>
       </c>
       <c r="G8">
-        <v>-0.3359563923324562</v>
+        <v>-0.2436061014286681</v>
       </c>
       <c r="H8">
-        <v>-0.09718038959942017</v>
+        <v>-0.1716105541566618</v>
       </c>
       <c r="I8">
-        <v>0.3454761916452728</v>
+        <v>0.6516092430264108</v>
       </c>
       <c r="J8">
-        <v>-1.437121096563408</v>
+        <v>-0.2599763804445534</v>
       </c>
       <c r="K8">
-        <v>-0.3896200357346246</v>
+        <v>-0.5448445598084661</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4392340301007687</v>
+        <v>-0.4901341631822193</v>
       </c>
       <c r="C9">
-        <v>0.2676189102814331</v>
+        <v>0.1670260745338887</v>
       </c>
       <c r="D9">
-        <v>-0.1660694851663267</v>
+        <v>-0.2706809057217282</v>
       </c>
       <c r="E9">
-        <v>-0.8209006453827813</v>
+        <v>-0.6438913169476664</v>
       </c>
       <c r="F9">
-        <v>-0.7827647753405074</v>
+        <v>-0.3689960970500608</v>
       </c>
       <c r="G9">
-        <v>-0.2675433733143674</v>
+        <v>-0.2100018672093421</v>
       </c>
       <c r="H9">
-        <v>-0.1168018889326251</v>
+        <v>-0.1088531923876616</v>
       </c>
       <c r="I9">
-        <v>0.3376958078344188</v>
+        <v>0.6891320589392547</v>
       </c>
       <c r="J9">
-        <v>-1.346325670287656</v>
+        <v>-0.15687450647473</v>
       </c>
       <c r="K9">
-        <v>-0.6624588914598437</v>
+        <v>-0.2181585164366216</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4006448528286777</v>
+        <v>-0.6574248635003771</v>
       </c>
       <c r="C10">
-        <v>0.1555404007666392</v>
+        <v>0.4606249780489305</v>
       </c>
       <c r="D10">
-        <v>-0.2545947248793431</v>
+        <v>-0.305608226345917</v>
       </c>
       <c r="E10">
-        <v>-0.7771811669638599</v>
+        <v>-0.4963465661655285</v>
       </c>
       <c r="F10">
-        <v>-0.5698550047337552</v>
+        <v>-0.5677195731447263</v>
       </c>
       <c r="G10">
-        <v>-0.1689302111619361</v>
+        <v>-0.202744812481572</v>
       </c>
       <c r="H10">
-        <v>-0.04138181403774516</v>
+        <v>-0.3417113611766923</v>
       </c>
       <c r="I10">
-        <v>0.6418758237876141</v>
+        <v>0.7272016639434482</v>
       </c>
       <c r="J10">
-        <v>-0.9493517320393534</v>
+        <v>-0.4310526650190732</v>
       </c>
       <c r="K10">
-        <v>-0.3830174957069033</v>
+        <v>-0.170787253974645</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5564171046821949</v>
+        <v>-0.5512988752739888</v>
       </c>
       <c r="C11">
-        <v>0.1982611932041693</v>
+        <v>0.09001436971760655</v>
       </c>
       <c r="D11">
-        <v>-0.5492475624313569</v>
+        <v>-0.195512829475718</v>
       </c>
       <c r="E11">
-        <v>-0.9312509572634367</v>
+        <v>-0.4823164414424949</v>
       </c>
       <c r="F11">
-        <v>-0.7232968236395283</v>
+        <v>-0.4196942136824691</v>
       </c>
       <c r="G11">
-        <v>-0.2458530167083823</v>
+        <v>-0.2352987508984237</v>
       </c>
       <c r="H11">
-        <v>0.01571920289500624</v>
+        <v>-0.1907795048947646</v>
       </c>
       <c r="I11">
-        <v>0.4309237425431591</v>
+        <v>0.8100867099379206</v>
       </c>
       <c r="J11">
-        <v>-0.7679258673802203</v>
+        <v>-0.3006865923468323</v>
       </c>
       <c r="K11">
-        <v>-0.2675479797627787</v>
+        <v>-0.1648345261366036</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.004619578623472584</v>
+        <v>-0.2183411795829162</v>
       </c>
       <c r="C12">
-        <v>0.001385565563294467</v>
+        <v>0.02408555353007461</v>
       </c>
       <c r="D12">
-        <v>-0.002782373912724182</v>
+        <v>-0.09839894035239612</v>
       </c>
       <c r="E12">
-        <v>-0.004733506841423826</v>
+        <v>-0.24949477894948</v>
       </c>
       <c r="F12">
-        <v>-0.003540411648252367</v>
+        <v>-0.2421941391446198</v>
       </c>
       <c r="G12">
-        <v>-0.004153695304004068</v>
+        <v>-0.1377892202161602</v>
       </c>
       <c r="H12">
-        <v>-0.003103070897399327</v>
+        <v>-0.08530726517608969</v>
       </c>
       <c r="I12">
-        <v>0.00403822878718224</v>
+        <v>0.1875125254756203</v>
       </c>
       <c r="J12">
-        <v>-0.0008741641593801913</v>
+        <v>-0.1227338917935244</v>
       </c>
       <c r="K12">
-        <v>0.0002319468161416654</v>
+        <v>-0.0427765710235854</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2412015364750028</v>
+        <v>-0.4641149672399608</v>
       </c>
       <c r="C13">
-        <v>0.1380222605659261</v>
+        <v>0.1248801279388227</v>
       </c>
       <c r="D13">
-        <v>-0.07025008861481292</v>
+        <v>-0.2115241184907491</v>
       </c>
       <c r="E13">
-        <v>-0.2666383728290952</v>
+        <v>-0.403345010889491</v>
       </c>
       <c r="F13">
-        <v>-0.2282593681779327</v>
+        <v>-0.2930452810274367</v>
       </c>
       <c r="G13">
-        <v>-0.1855737541593188</v>
+        <v>-0.2589978833060099</v>
       </c>
       <c r="H13">
-        <v>-0.1199074666911579</v>
+        <v>-0.1471115998341524</v>
       </c>
       <c r="I13">
-        <v>0.1747444877412729</v>
+        <v>0.4713416630471287</v>
       </c>
       <c r="J13">
-        <v>-0.04884772897559451</v>
+        <v>-0.4126382079997761</v>
       </c>
       <c r="K13">
-        <v>-0.04154554386559791</v>
+        <v>-0.1124836832050915</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.6095460799141966</v>
+        <v>-0.8564433850658463</v>
       </c>
       <c r="C14">
-        <v>0.1439267521220069</v>
+        <v>0.3625127487924387</v>
       </c>
       <c r="D14">
-        <v>-0.2512867597590348</v>
+        <v>-0.5290664854191051</v>
       </c>
       <c r="E14">
-        <v>-0.7264144570161643</v>
+        <v>-0.6480949388763483</v>
       </c>
       <c r="F14">
-        <v>-0.914742238053549</v>
+        <v>-0.4638917129629513</v>
       </c>
       <c r="G14">
-        <v>-0.2876277121549275</v>
+        <v>-0.4521456978593665</v>
       </c>
       <c r="H14">
-        <v>-0.1961051950539842</v>
+        <v>0.1467466817006559</v>
       </c>
       <c r="I14">
-        <v>0.3948509573369215</v>
+        <v>0.6515495797103196</v>
       </c>
       <c r="J14">
-        <v>-0.6171327203143935</v>
+        <v>-0.7086064895676775</v>
       </c>
       <c r="K14">
-        <v>-0.3545279565207291</v>
+        <v>-0.2755495888462803</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2466722593935712</v>
+        <v>-0.7677792046032897</v>
       </c>
       <c r="C15">
-        <v>0.1130453231844741</v>
+        <v>0.1875268914944066</v>
       </c>
       <c r="D15">
-        <v>-0.08894843654730619</v>
+        <v>-0.4726936554007414</v>
       </c>
       <c r="E15">
-        <v>-0.26183649923393</v>
+        <v>-0.8305405528714453</v>
       </c>
       <c r="F15">
-        <v>-0.2311343608420365</v>
+        <v>-0.5426763500152607</v>
       </c>
       <c r="G15">
-        <v>-0.18137097685722</v>
+        <v>-0.3122809367670595</v>
       </c>
       <c r="H15">
-        <v>-0.1167083852181628</v>
+        <v>-0.1568064190304671</v>
       </c>
       <c r="I15">
-        <v>0.2110377790377303</v>
+        <v>0.6064230740034378</v>
       </c>
       <c r="J15">
-        <v>-0.07883785445436908</v>
+        <v>-0.3303322842745484</v>
       </c>
       <c r="K15">
-        <v>-0.02694922814767042</v>
+        <v>-0.1115798035327191</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.419098212331217</v>
+        <v>-0.5348107934632094</v>
       </c>
       <c r="C16">
-        <v>0.1322895342809381</v>
+        <v>0.02566681270185972</v>
       </c>
       <c r="D16">
-        <v>-0.4388494310367669</v>
+        <v>-0.3732972876167631</v>
       </c>
       <c r="E16">
-        <v>-0.7790932690990688</v>
+        <v>-0.6605306529760276</v>
       </c>
       <c r="F16">
-        <v>-0.6145482107477462</v>
+        <v>-0.333926712719796</v>
       </c>
       <c r="G16">
-        <v>-0.2768154588645191</v>
+        <v>-0.4243502455822264</v>
       </c>
       <c r="H16">
-        <v>-0.08255872800579168</v>
+        <v>-0.03582927223175544</v>
       </c>
       <c r="I16">
-        <v>0.5070235282833375</v>
+        <v>0.3397010152663671</v>
       </c>
       <c r="J16">
-        <v>-1.260403348895839</v>
+        <v>-0.3150322204644583</v>
       </c>
       <c r="K16">
-        <v>-0.3387994438405603</v>
+        <v>-0.2064304509061283</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.004127410131241107</v>
+        <v>-0.3990640861713028</v>
       </c>
       <c r="C17">
-        <v>0.000730860207198623</v>
+        <v>0.1531320533326672</v>
       </c>
       <c r="D17">
-        <v>-0.002533307901648037</v>
+        <v>-0.1877825284863173</v>
       </c>
       <c r="E17">
-        <v>-0.004877642805292423</v>
+        <v>-0.4255629426547956</v>
       </c>
       <c r="F17">
-        <v>-0.004707830421972888</v>
+        <v>-0.2850760941743837</v>
       </c>
       <c r="G17">
-        <v>-0.003070110980702273</v>
+        <v>-0.2270845476368999</v>
       </c>
       <c r="H17">
-        <v>-0.001835571158384584</v>
+        <v>-0.1461883735514402</v>
       </c>
       <c r="I17">
-        <v>0.003369971767039821</v>
+        <v>0.5850108832825179</v>
       </c>
       <c r="J17">
-        <v>-0.0009957925375402344</v>
+        <v>-0.2455834520121608</v>
       </c>
       <c r="K17">
-        <v>-0.001564509407622992</v>
+        <v>-0.2116425489033348</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3587926593877829</v>
+        <v>-0.004395925470336982</v>
       </c>
       <c r="C18">
-        <v>0.2011676989366329</v>
+        <v>0.001568827956668662</v>
       </c>
       <c r="D18">
-        <v>-0.07649919390004262</v>
+        <v>-0.001962603281056824</v>
       </c>
       <c r="E18">
-        <v>-0.3598154054794743</v>
+        <v>-0.003851120370154236</v>
       </c>
       <c r="F18">
-        <v>-0.5275446656720698</v>
+        <v>-0.003940971333839362</v>
       </c>
       <c r="G18">
-        <v>-0.1605379268447115</v>
+        <v>-0.004265088103425168</v>
       </c>
       <c r="H18">
-        <v>-0.1975657525738239</v>
+        <v>-0.003049049345216331</v>
       </c>
       <c r="I18">
-        <v>0.428225866886604</v>
+        <v>0.004158866508555637</v>
       </c>
       <c r="J18">
-        <v>-0.2847960333157955</v>
+        <v>-0.002420250684476017</v>
       </c>
       <c r="K18">
-        <v>-0.160758045988601</v>
+        <v>-0.0008927601087147184</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5239191657299235</v>
+        <v>-0.5547140737212864</v>
       </c>
       <c r="C19">
-        <v>0.0212702652553351</v>
+        <v>0.171728069190217</v>
       </c>
       <c r="D19">
-        <v>-0.2883626562645989</v>
+        <v>-0.2681308625702709</v>
       </c>
       <c r="E19">
-        <v>-0.9533273996366605</v>
+        <v>-0.7023985589326796</v>
       </c>
       <c r="F19">
-        <v>-0.7576860833012866</v>
+        <v>-0.5301557968099637</v>
       </c>
       <c r="G19">
-        <v>-0.07152847087568449</v>
+        <v>-0.2396602501958399</v>
       </c>
       <c r="H19">
-        <v>0.06256186638017568</v>
+        <v>-0.194025620244156</v>
       </c>
       <c r="I19">
-        <v>0.8546615816590701</v>
+        <v>0.4403225170710029</v>
       </c>
       <c r="J19">
-        <v>-1.372803502329118</v>
+        <v>-0.2018296684735721</v>
       </c>
       <c r="K19">
-        <v>-0.2608848837076595</v>
+        <v>-0.3365913012080763</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.649957928049557</v>
+        <v>-0.5710264431318222</v>
       </c>
       <c r="C20">
-        <v>0.3030394054001205</v>
+        <v>0.2106065880146952</v>
       </c>
       <c r="D20">
-        <v>-0.152723749926923</v>
+        <v>-0.1939875544127361</v>
       </c>
       <c r="E20">
-        <v>-0.5448776970746243</v>
+        <v>-0.590664473324254</v>
       </c>
       <c r="F20">
-        <v>-0.6810258099021972</v>
+        <v>-0.2537513531732741</v>
       </c>
       <c r="G20">
-        <v>-0.4563500494474879</v>
+        <v>-0.5073204020569391</v>
       </c>
       <c r="H20">
-        <v>-0.2450518818022297</v>
+        <v>-0.1737498381079177</v>
       </c>
       <c r="I20">
-        <v>0.5856875437222027</v>
+        <v>0.4717586259391505</v>
       </c>
       <c r="J20">
-        <v>-0.4088740593178308</v>
+        <v>-0.2662332722304843</v>
       </c>
       <c r="K20">
-        <v>-0.3552180294496829</v>
+        <v>-0.4053034580539938</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4420576042188626</v>
+        <v>-0.446035798554643</v>
       </c>
       <c r="C21">
-        <v>0.4170419029308139</v>
+        <v>0.2333826418754756</v>
       </c>
       <c r="D21">
-        <v>0.03829586185435924</v>
+        <v>-0.2169574658042877</v>
       </c>
       <c r="E21">
-        <v>-0.644172954016145</v>
+        <v>-0.5209013401248083</v>
       </c>
       <c r="F21">
-        <v>-0.5183145868299789</v>
+        <v>-0.1484105595826251</v>
       </c>
       <c r="G21">
-        <v>-0.3671992438416254</v>
+        <v>-0.1892092429600736</v>
       </c>
       <c r="H21">
-        <v>-0.2215862140952636</v>
+        <v>-0.1386083989802901</v>
       </c>
       <c r="I21">
-        <v>0.596795652232753</v>
+        <v>0.4951012886141873</v>
       </c>
       <c r="J21">
-        <v>-1.233631644762246</v>
+        <v>-0.3340101891183345</v>
       </c>
       <c r="K21">
-        <v>-0.310089819181417</v>
+        <v>-0.2276058977727126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03644467182958282</v>
+        <v>-0.6418873806826991</v>
       </c>
       <c r="C22">
-        <v>0.00373529142277905</v>
+        <v>0.2986632357430307</v>
       </c>
       <c r="D22">
-        <v>-0.01986828211406238</v>
+        <v>-0.3195908455959095</v>
       </c>
       <c r="E22">
-        <v>-0.04262371920231059</v>
+        <v>-0.5245714755426453</v>
       </c>
       <c r="F22">
-        <v>-0.0430953568950622</v>
+        <v>-0.4627761274667198</v>
       </c>
       <c r="G22">
-        <v>-0.02757251870511511</v>
+        <v>-0.08366902208119865</v>
       </c>
       <c r="H22">
-        <v>-0.01910519552590606</v>
+        <v>-0.1341225766250799</v>
       </c>
       <c r="I22">
-        <v>0.03406957257927635</v>
+        <v>0.8339767665549369</v>
       </c>
       <c r="J22">
-        <v>-0.01116881374972884</v>
+        <v>-0.4388920283304014</v>
       </c>
       <c r="K22">
-        <v>-0.01175680059299346</v>
+        <v>-0.183463794754354</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.4720721679233604</v>
+        <v>-0.4127247729413451</v>
       </c>
       <c r="C23">
-        <v>0.2244418782703284</v>
+        <v>0.0530614301104574</v>
       </c>
       <c r="D23">
-        <v>-0.2852299132014915</v>
+        <v>-0.1861006370829328</v>
       </c>
       <c r="E23">
-        <v>-0.74615075262824</v>
+        <v>-0.4681091844079823</v>
       </c>
       <c r="F23">
-        <v>-0.697138236361975</v>
+        <v>-0.3578022902890156</v>
       </c>
       <c r="G23">
-        <v>-0.2576566425626421</v>
+        <v>-0.3336888909889187</v>
       </c>
       <c r="H23">
-        <v>-0.2212737926715976</v>
+        <v>-0.1279368062956135</v>
       </c>
       <c r="I23">
-        <v>0.3734695795928113</v>
+        <v>0.3432267919810933</v>
       </c>
       <c r="J23">
-        <v>-0.5514794142314169</v>
+        <v>-0.2463163456189092</v>
       </c>
       <c r="K23">
-        <v>-0.3228902659006416</v>
+        <v>-0.1500145946758753</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.5761915347829213</v>
+        <v>-0.2541483339124213</v>
       </c>
       <c r="C24">
-        <v>0.01853703745370285</v>
+        <v>0.04501272678565112</v>
       </c>
       <c r="D24">
-        <v>-0.7898301220684845</v>
+        <v>-0.1638713819830324</v>
       </c>
       <c r="E24">
-        <v>-1.222397090723313</v>
+        <v>-0.2817613954645881</v>
       </c>
       <c r="F24">
-        <v>-0.5959563318859586</v>
+        <v>-0.1684569051511492</v>
       </c>
       <c r="G24">
-        <v>-0.3506476472790441</v>
+        <v>-0.1844506671250648</v>
       </c>
       <c r="H24">
-        <v>-0.06020509935313339</v>
+        <v>-0.08371293890533614</v>
       </c>
       <c r="I24">
-        <v>0.2158330805320159</v>
+        <v>0.2077791716200952</v>
       </c>
       <c r="J24">
-        <v>-2.272133776134527</v>
+        <v>-0.1233666180921725</v>
       </c>
       <c r="K24">
-        <v>-0.426294264866481</v>
+        <v>-0.06031268099717397</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.5770070836629949</v>
+        <v>-0.2487302956061019</v>
       </c>
       <c r="C25">
-        <v>0.1106222369194242</v>
+        <v>0.08434076804730181</v>
       </c>
       <c r="D25">
-        <v>-0.4453456951649379</v>
+        <v>-0.1511289819820811</v>
       </c>
       <c r="E25">
-        <v>-0.8108161370225893</v>
+        <v>-0.2772414761061344</v>
       </c>
       <c r="F25">
-        <v>-0.7327086931255808</v>
+        <v>-0.1438783198439756</v>
       </c>
       <c r="G25">
-        <v>-0.3504699369560303</v>
+        <v>-0.1720854077735005</v>
       </c>
       <c r="H25">
-        <v>-0.09677126015941878</v>
+        <v>-0.02408383053748305</v>
       </c>
       <c r="I25">
-        <v>0.3536619172680399</v>
+        <v>0.2728265594372576</v>
       </c>
       <c r="J25">
-        <v>-0.5742142403041579</v>
+        <v>-0.1060752017237826</v>
       </c>
       <c r="K25">
-        <v>-0.3716681660990698</v>
+        <v>-0.03114176026302424</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3889370522566681</v>
+        <v>-0.5661226805585911</v>
       </c>
       <c r="C26">
-        <v>-0.01341466292199017</v>
+        <v>0.05021131289922574</v>
       </c>
       <c r="D26">
-        <v>-0.4967040553429486</v>
+        <v>-0.3642077906586146</v>
       </c>
       <c r="E26">
-        <v>-0.77001682273725</v>
+        <v>-0.6456454808941842</v>
       </c>
       <c r="F26">
-        <v>-0.6262565190543131</v>
+        <v>-0.4547496169172212</v>
       </c>
       <c r="G26">
-        <v>-0.1172878012517195</v>
+        <v>-0.2462999441122811</v>
       </c>
       <c r="H26">
-        <v>-0.02002770173574061</v>
+        <v>0.07350405020919615</v>
       </c>
       <c r="I26">
-        <v>0.5948305415012654</v>
+        <v>0.4545533164574468</v>
       </c>
       <c r="J26">
-        <v>-0.981407553292146</v>
+        <v>-0.4627525638082151</v>
       </c>
       <c r="K26">
-        <v>-0.1860573219254705</v>
+        <v>-0.182052965331995</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3408683681624805</v>
+        <v>-0.004522871597527188</v>
       </c>
       <c r="C27">
-        <v>0.1464668685053449</v>
+        <v>0.001510210329550449</v>
       </c>
       <c r="D27">
-        <v>-0.2581847008297372</v>
+        <v>-0.002382506568038573</v>
       </c>
       <c r="E27">
-        <v>-0.6194201837002501</v>
+        <v>-0.005008272806922691</v>
       </c>
       <c r="F27">
-        <v>-0.5615533750751672</v>
+        <v>-0.002872775719077073</v>
       </c>
       <c r="G27">
-        <v>-0.1831556363916915</v>
+        <v>-0.004414868644371022</v>
       </c>
       <c r="H27">
-        <v>-0.05902011133430613</v>
+        <v>-0.002532396251303322</v>
       </c>
       <c r="I27">
-        <v>0.3546217820878277</v>
+        <v>0.003647429553308267</v>
       </c>
       <c r="J27">
-        <v>-0.3996404243433633</v>
+        <v>-0.003159239435858082</v>
       </c>
       <c r="K27">
-        <v>-0.2208501450037887</v>
+        <v>-0.0003486046890192767</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.307473491558576</v>
+        <v>-0.6424236370738091</v>
       </c>
       <c r="C28">
-        <v>0.08572635857028309</v>
+        <v>0.344830065678554</v>
       </c>
       <c r="D28">
-        <v>-0.1795881707994797</v>
+        <v>-0.1559077933967717</v>
       </c>
       <c r="E28">
-        <v>-0.5620642532403414</v>
+        <v>-0.5878243266310996</v>
       </c>
       <c r="F28">
-        <v>-0.4024582407764212</v>
+        <v>-0.6097273242381468</v>
       </c>
       <c r="G28">
-        <v>-0.2036427316397489</v>
+        <v>-0.316475817405141</v>
       </c>
       <c r="H28">
-        <v>-0.101304511890123</v>
+        <v>-0.2084952726593145</v>
       </c>
       <c r="I28">
-        <v>0.2113254935820379</v>
+        <v>0.5538561636592323</v>
       </c>
       <c r="J28">
-        <v>-0.2059066691341681</v>
+        <v>-0.4139885666148194</v>
       </c>
       <c r="K28">
-        <v>-0.1407907952307821</v>
+        <v>-0.2666890303545255</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.6598770893949675</v>
+        <v>-0.4423971198483668</v>
       </c>
       <c r="C29">
-        <v>0.1771179022263877</v>
+        <v>0.1237639837873361</v>
       </c>
       <c r="D29">
-        <v>-0.3935679718248136</v>
+        <v>-0.257505619065591</v>
       </c>
       <c r="E29">
-        <v>-0.8801353744408998</v>
+        <v>-0.6476375053812671</v>
       </c>
       <c r="F29">
-        <v>-0.6627687076206229</v>
+        <v>-0.3212988975193418</v>
       </c>
       <c r="G29">
-        <v>-0.3109506152756563</v>
+        <v>-0.24083186548181</v>
       </c>
       <c r="H29">
-        <v>-0.213616181741004</v>
+        <v>-0.02240762453428615</v>
       </c>
       <c r="I29">
-        <v>0.6227063095032737</v>
+        <v>0.289859217224415</v>
       </c>
       <c r="J29">
-        <v>-1.001771267820291</v>
+        <v>-0.3042923281779713</v>
       </c>
       <c r="K29">
-        <v>-0.5642707452856411</v>
+        <v>-0.2617063255345982</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.3916471642923152</v>
+        <v>-0.04318503294330842</v>
       </c>
       <c r="C30">
-        <v>0.02984528932881497</v>
+        <v>0.01109968469781842</v>
       </c>
       <c r="D30">
-        <v>-0.4232673575966267</v>
+        <v>-0.02133501275878285</v>
       </c>
       <c r="E30">
-        <v>-0.9237230347304122</v>
+        <v>-0.03948370126238396</v>
       </c>
       <c r="F30">
-        <v>-0.6932319966793402</v>
+        <v>-0.03995294017120921</v>
       </c>
       <c r="G30">
-        <v>-0.2099192108747901</v>
+        <v>-0.03393403078939798</v>
       </c>
       <c r="H30">
-        <v>-0.07386137251302291</v>
+        <v>-0.02194867465006585</v>
       </c>
       <c r="I30">
-        <v>0.4307439488438453</v>
+        <v>0.03934711115423266</v>
       </c>
       <c r="J30">
-        <v>-1.287020572785022</v>
+        <v>-0.02872940768610546</v>
       </c>
       <c r="K30">
-        <v>-0.1591573164540901</v>
+        <v>-0.007839886583218655</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.3647194452324836</v>
+        <v>-0.5845974138295348</v>
       </c>
       <c r="C31">
-        <v>0.07677734271346241</v>
+        <v>0.2133672706148363</v>
       </c>
       <c r="D31">
-        <v>-0.3164481820801633</v>
+        <v>-0.2082581209644213</v>
       </c>
       <c r="E31">
-        <v>-0.7501888203626818</v>
+        <v>-0.7847782344168079</v>
       </c>
       <c r="F31">
-        <v>-0.7416235650541387</v>
+        <v>-0.6285120967637294</v>
       </c>
       <c r="G31">
-        <v>-0.2262530794247384</v>
+        <v>-0.3133687307938025</v>
       </c>
       <c r="H31">
-        <v>-0.1896636297642188</v>
+        <v>-0.1072522899190864</v>
       </c>
       <c r="I31">
-        <v>0.300688794814462</v>
+        <v>0.4510313995561742</v>
       </c>
       <c r="J31">
-        <v>-1.070583357126281</v>
+        <v>-0.3607185140776467</v>
       </c>
       <c r="K31">
-        <v>-0.4108498548373176</v>
+        <v>-0.477080995256805</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.3659501741038147</v>
+        <v>-0.2422893157855186</v>
       </c>
       <c r="C32">
-        <v>0.2152500747680212</v>
+        <v>0.07179660706652927</v>
       </c>
       <c r="D32">
-        <v>-0.1522089625652348</v>
+        <v>-0.08651547654208401</v>
       </c>
       <c r="E32">
-        <v>-0.5734055137993953</v>
+        <v>-0.2432387918108993</v>
       </c>
       <c r="F32">
-        <v>-0.6509326912938782</v>
+        <v>-0.1764440736235431</v>
       </c>
       <c r="G32">
-        <v>-0.3835736718074129</v>
+        <v>-0.2109813290488886</v>
       </c>
       <c r="H32">
-        <v>-0.1466037632222913</v>
+        <v>-0.06290596310465665</v>
       </c>
       <c r="I32">
-        <v>0.3474871245562848</v>
+        <v>0.183602132587654</v>
       </c>
       <c r="J32">
-        <v>-0.6625610679115999</v>
+        <v>-0.162936385670783</v>
       </c>
       <c r="K32">
-        <v>-0.442144112506461</v>
+        <v>-0.1522837921809075</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.003750904376704268</v>
+        <v>-0.4860469900703253</v>
       </c>
       <c r="C33">
-        <v>0.0008133736381920713</v>
+        <v>0.252476422925595</v>
       </c>
       <c r="D33">
-        <v>-0.00258506299694475</v>
+        <v>-0.5097176230657494</v>
       </c>
       <c r="E33">
-        <v>-0.004325461977105625</v>
+        <v>-0.760935598834434</v>
       </c>
       <c r="F33">
-        <v>-0.004329704661904552</v>
+        <v>-0.3063992464070645</v>
       </c>
       <c r="G33">
-        <v>-0.003737483032611289</v>
+        <v>-0.04331804648239852</v>
       </c>
       <c r="H33">
-        <v>-0.002441055257093072</v>
+        <v>-0.1051001076392299</v>
       </c>
       <c r="I33">
-        <v>0.002653970353703186</v>
+        <v>0.4354043622038765</v>
       </c>
       <c r="J33">
-        <v>-0.0008780769482890389</v>
+        <v>-0.3108175232033555</v>
       </c>
       <c r="K33">
-        <v>-0.0005177131907135455</v>
+        <v>-0.09501592446174667</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.7432232036367198</v>
+        <v>-0.8013532559185715</v>
       </c>
       <c r="C34">
-        <v>0.4203478901897403</v>
+        <v>0.1820923074262994</v>
       </c>
       <c r="D34">
-        <v>-0.2445641747480355</v>
+        <v>-0.1613214663380249</v>
       </c>
       <c r="E34">
-        <v>-1.040656364960745</v>
+        <v>-0.4696809530013482</v>
       </c>
       <c r="F34">
-        <v>-0.830983686175523</v>
+        <v>-0.5207330925643908</v>
       </c>
       <c r="G34">
-        <v>-0.5124136482130374</v>
+        <v>-0.2491255230772805</v>
       </c>
       <c r="H34">
-        <v>-0.2230578225588558</v>
+        <v>-0.2745882039896801</v>
       </c>
       <c r="I34">
-        <v>0.453205444656369</v>
+        <v>0.5792972794408004</v>
       </c>
       <c r="J34">
-        <v>-0.7191834598351257</v>
+        <v>-0.9274232965888429</v>
       </c>
       <c r="K34">
-        <v>-0.7785047997098181</v>
+        <v>-0.1637188361901399</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5225017818834246</v>
+        <v>-0.005946487001066624</v>
       </c>
       <c r="C35">
-        <v>0.3211502096815305</v>
+        <v>0.001999677799522163</v>
       </c>
       <c r="D35">
-        <v>-0.4895784648158417</v>
+        <v>-0.002802834582807215</v>
       </c>
       <c r="E35">
-        <v>-0.8297923412392333</v>
+        <v>-0.005800129113079495</v>
       </c>
       <c r="F35">
-        <v>-0.72077004163833</v>
+        <v>-0.004398837921745517</v>
       </c>
       <c r="G35">
-        <v>-0.02900476011865116</v>
+        <v>-0.004599899156815819</v>
       </c>
       <c r="H35">
-        <v>-0.2505004871479231</v>
+        <v>-0.002765897954100192</v>
       </c>
       <c r="I35">
-        <v>0.3569961026226067</v>
+        <v>0.004069492235605031</v>
       </c>
       <c r="J35">
-        <v>-0.6658506785114229</v>
+        <v>-0.002969564406580698</v>
       </c>
       <c r="K35">
-        <v>-0.4661162159724464</v>
+        <v>-1.440921830049557E-07</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.3915510452711727</v>
+        <v>-0.005863685173968671</v>
       </c>
       <c r="C36">
-        <v>0.08250182730557352</v>
+        <v>0.002175069594663767</v>
       </c>
       <c r="D36">
-        <v>-0.3996517913642282</v>
+        <v>-0.002577507015487423</v>
       </c>
       <c r="E36">
-        <v>-0.8580792557832646</v>
+        <v>-0.004810389614334018</v>
       </c>
       <c r="F36">
-        <v>-0.7799938157381644</v>
+        <v>-0.003956486105611123</v>
       </c>
       <c r="G36">
-        <v>-0.1878015484907998</v>
+        <v>-0.004904444526502369</v>
       </c>
       <c r="H36">
-        <v>-0.05434647833049213</v>
+        <v>-0.003471154564616285</v>
       </c>
       <c r="I36">
-        <v>0.2500384190505217</v>
+        <v>0.005007805876013491</v>
       </c>
       <c r="J36">
-        <v>-1.350948450416771</v>
+        <v>-0.002362104732731801</v>
       </c>
       <c r="K36">
-        <v>-0.3813798528593891</v>
+        <v>-0.0006814461690916333</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.004054535671489191</v>
+        <v>-0.004170489773472862</v>
       </c>
       <c r="C37">
-        <v>0.0006919069337420685</v>
+        <v>0.001598944062096913</v>
       </c>
       <c r="D37">
-        <v>-0.003438428618526319</v>
+        <v>-0.002297425133794007</v>
       </c>
       <c r="E37">
-        <v>-0.003523801968701572</v>
+        <v>-0.004252231202317706</v>
       </c>
       <c r="F37">
-        <v>-0.00376399881882655</v>
+        <v>-0.003115782298181136</v>
       </c>
       <c r="G37">
-        <v>-0.002989213020627074</v>
+        <v>-0.003566005606465354</v>
       </c>
       <c r="H37">
-        <v>-0.002683833627738605</v>
+        <v>-0.002869151464019985</v>
       </c>
       <c r="I37">
-        <v>0.004735906235406932</v>
+        <v>0.003993796764763905</v>
       </c>
       <c r="J37">
-        <v>-0.001150244688465459</v>
+        <v>-0.003109051977542852</v>
       </c>
       <c r="K37">
-        <v>-0.0009755267997860979</v>
+        <v>-0.001170081324058058</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1939750415490702</v>
+        <v>-0.2394687873275912</v>
       </c>
       <c r="C38">
-        <v>0.1051567547317662</v>
+        <v>0.1053789776716817</v>
       </c>
       <c r="D38">
-        <v>-0.07836346689257348</v>
+        <v>-0.1015078816274954</v>
       </c>
       <c r="E38">
-        <v>-0.2286104885827387</v>
+        <v>-0.2469051116492176</v>
       </c>
       <c r="F38">
-        <v>-0.2577127687154086</v>
+        <v>-0.218153915308466</v>
       </c>
       <c r="G38">
-        <v>-0.1347234745901138</v>
+        <v>-0.1547464383357586</v>
       </c>
       <c r="H38">
-        <v>-0.09778265837763986</v>
+        <v>-0.07516089317692078</v>
       </c>
       <c r="I38">
-        <v>0.1807244804245989</v>
+        <v>0.1963162317610659</v>
       </c>
       <c r="J38">
-        <v>-0.1061923091960369</v>
+        <v>-0.1434071408494083</v>
       </c>
       <c r="K38">
-        <v>-0.04251297885267637</v>
+        <v>-0.07524400382697395</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2225227981482095</v>
+        <v>-0.004937935519068303</v>
       </c>
       <c r="C39">
-        <v>0.09497917609986449</v>
+        <v>0.001002185183938272</v>
       </c>
       <c r="D39">
-        <v>-0.08676516747643953</v>
+        <v>-0.002640833599098666</v>
       </c>
       <c r="E39">
-        <v>-0.2730250397376697</v>
+        <v>-0.005140858067863486</v>
       </c>
       <c r="F39">
-        <v>-0.2183491634249228</v>
+        <v>-0.004071831980436333</v>
       </c>
       <c r="G39">
-        <v>-0.1590690609026289</v>
+        <v>-0.00411297075419345</v>
       </c>
       <c r="H39">
-        <v>-0.09310216297204273</v>
+        <v>-0.001733046872992918</v>
       </c>
       <c r="I39">
-        <v>0.1831499866588623</v>
+        <v>0.004472128086648094</v>
       </c>
       <c r="J39">
-        <v>-0.05921528599212805</v>
+        <v>-0.002837505718951231</v>
       </c>
       <c r="K39">
-        <v>-0.1067125336421098</v>
+        <v>-7.557842429090184E-05</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.43746075940846</v>
+        <v>-0.7429672293763975</v>
       </c>
       <c r="C40">
-        <v>0.06175213546149438</v>
+        <v>0.04276065124992133</v>
       </c>
       <c r="D40">
-        <v>-0.4249398854678804</v>
+        <v>-0.3275239522358072</v>
       </c>
       <c r="E40">
-        <v>-0.8186211139648569</v>
+        <v>-0.7615858032068739</v>
       </c>
       <c r="F40">
-        <v>-0.6713430653062342</v>
+        <v>-0.2819265840990152</v>
       </c>
       <c r="G40">
-        <v>-0.3088852015633367</v>
+        <v>-0.3514051423540019</v>
       </c>
       <c r="H40">
-        <v>-0.2406139159487782</v>
+        <v>-0.0868225392740614</v>
       </c>
       <c r="I40">
-        <v>0.205194161797988</v>
+        <v>0.7288158643040145</v>
       </c>
       <c r="J40">
-        <v>-0.8947138812272032</v>
+        <v>-0.4609294998610207</v>
       </c>
       <c r="K40">
-        <v>-0.2738062945075572</v>
+        <v>-0.2083259590682976</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3431658346960647</v>
+        <v>-0.04317393062126797</v>
       </c>
       <c r="C41">
-        <v>0.1223354008335235</v>
+        <v>0.01805036933343374</v>
       </c>
       <c r="D41">
-        <v>-0.2860850847713191</v>
+        <v>-0.01505431460110111</v>
       </c>
       <c r="E41">
-        <v>-0.5917687533502162</v>
+        <v>-0.04143706207685127</v>
       </c>
       <c r="F41">
-        <v>-0.4267324888154707</v>
+        <v>-0.03189184156381802</v>
       </c>
       <c r="G41">
-        <v>-0.2344486628234921</v>
+        <v>-0.03751614244558465</v>
       </c>
       <c r="H41">
-        <v>-0.1194409748068677</v>
+        <v>-0.02406149705589138</v>
       </c>
       <c r="I41">
-        <v>0.3322850338315537</v>
+        <v>0.04304218654585196</v>
       </c>
       <c r="J41">
-        <v>-0.3996335894226852</v>
+        <v>-0.02416895331373181</v>
       </c>
       <c r="K41">
-        <v>-0.2681113808622005</v>
+        <v>-0.004902684211580511</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.4723506517904349</v>
+        <v>-0.2015379114365201</v>
       </c>
       <c r="C42">
-        <v>0.01323725106285385</v>
+        <v>0.1109760557594019</v>
       </c>
       <c r="D42">
-        <v>-0.4652026915672915</v>
+        <v>-0.1257741973733283</v>
       </c>
       <c r="E42">
-        <v>-0.9202878917293734</v>
+        <v>-0.2284486511340034</v>
       </c>
       <c r="F42">
-        <v>-0.6990505278714961</v>
+        <v>-0.1519246618336548</v>
       </c>
       <c r="G42">
-        <v>-0.07264789918549334</v>
+        <v>-0.1653849021253145</v>
       </c>
       <c r="H42">
-        <v>-0.1106330308302255</v>
+        <v>-0.1100057510992268</v>
       </c>
       <c r="I42">
-        <v>0.6584745794110808</v>
+        <v>0.1653116916215799</v>
       </c>
       <c r="J42">
-        <v>-1.248832775976709</v>
+        <v>-0.139847209461364</v>
       </c>
       <c r="K42">
-        <v>-0.3788420585169587</v>
+        <v>-0.0155332205168585</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3704671062956812</v>
+        <v>-0.3254455982503858</v>
       </c>
       <c r="C43">
-        <v>0.0813033390032409</v>
+        <v>0.1495420566631535</v>
       </c>
       <c r="D43">
-        <v>-0.197649925474819</v>
+        <v>-0.1716642818890831</v>
       </c>
       <c r="E43">
-        <v>-0.5024962392745638</v>
+        <v>-0.4224403754737689</v>
       </c>
       <c r="F43">
-        <v>-0.4777681720852081</v>
+        <v>-0.2466447106355762</v>
       </c>
       <c r="G43">
-        <v>-0.2973639204317672</v>
+        <v>-0.24932496860777</v>
       </c>
       <c r="H43">
-        <v>-0.1579526388802638</v>
+        <v>-0.09302676934448859</v>
       </c>
       <c r="I43">
-        <v>0.2608794281867813</v>
+        <v>0.364347065549312</v>
       </c>
       <c r="J43">
-        <v>-0.2490121484213441</v>
+        <v>-0.239769015521509</v>
       </c>
       <c r="K43">
-        <v>-0.1337886238566449</v>
+        <v>-0.182740645333086</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.004212646772559793</v>
+        <v>-0.5572295556614625</v>
       </c>
       <c r="C44">
-        <v>0.001547916812727839</v>
+        <v>0.16093576934419</v>
       </c>
       <c r="D44">
-        <v>-0.002141545305840264</v>
+        <v>-0.2074528319213875</v>
       </c>
       <c r="E44">
-        <v>-0.003984813703990879</v>
+        <v>-0.6385757928290946</v>
       </c>
       <c r="F44">
-        <v>-0.003822238063397197</v>
+        <v>-0.4187336863935232</v>
       </c>
       <c r="G44">
-        <v>-0.003928182770180598</v>
+        <v>-0.3950763575263236</v>
       </c>
       <c r="H44">
-        <v>-0.002595557817504431</v>
+        <v>0.07236965604166679</v>
       </c>
       <c r="I44">
-        <v>0.004597809675733503</v>
+        <v>0.5996396799979121</v>
       </c>
       <c r="J44">
-        <v>-0.0009657886364549062</v>
+        <v>-0.09312022821757718</v>
       </c>
       <c r="K44">
-        <v>-7.209792214837488E-05</v>
+        <v>-0.4528096939860266</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.04091454772144506</v>
+        <v>-0.5297430786451527</v>
       </c>
       <c r="C45">
-        <v>0.01229832890613561</v>
+        <v>0.2319705218305797</v>
       </c>
       <c r="D45">
-        <v>-0.02169618587969251</v>
+        <v>-0.1884540256940785</v>
       </c>
       <c r="E45">
-        <v>-0.04751220563773781</v>
+        <v>-0.6364311956312039</v>
       </c>
       <c r="F45">
-        <v>-0.03810415248631816</v>
+        <v>-0.4989733643083581</v>
       </c>
       <c r="G45">
-        <v>-0.03482880175584019</v>
+        <v>-0.2944842279928597</v>
       </c>
       <c r="H45">
-        <v>-0.02339281993499152</v>
+        <v>0.02464685019937711</v>
       </c>
       <c r="I45">
-        <v>0.03277503900703502</v>
+        <v>0.5084927250054873</v>
       </c>
       <c r="J45">
-        <v>-0.01161359344321496</v>
+        <v>-0.3066281013519136</v>
       </c>
       <c r="K45">
-        <v>-0.008157018644464376</v>
+        <v>-0.4410521288741668</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4305460562913713</v>
+        <v>-0.4047686302977859</v>
       </c>
       <c r="C46">
-        <v>0.04203388968857873</v>
+        <v>0.2045637546602762</v>
       </c>
       <c r="D46">
-        <v>-0.4758832850426408</v>
+        <v>-0.1630974189362566</v>
       </c>
       <c r="E46">
-        <v>-0.9698338232224875</v>
+        <v>-0.4856199595360413</v>
       </c>
       <c r="F46">
-        <v>-0.3684904671392961</v>
+        <v>-0.3703077011044514</v>
       </c>
       <c r="G46">
-        <v>-0.2782347263817143</v>
+        <v>-0.2259131437140132</v>
       </c>
       <c r="H46">
-        <v>0.003103609915009374</v>
+        <v>-0.1532610583481675</v>
       </c>
       <c r="I46">
-        <v>0.5773906354282616</v>
+        <v>0.3776016122710444</v>
       </c>
       <c r="J46">
-        <v>-1.203937224325984</v>
+        <v>-0.1664408662644177</v>
       </c>
       <c r="K46">
-        <v>-0.4258224087833669</v>
+        <v>-0.1124472469734895</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4075307722027849</v>
+        <v>-0.005250459634211721</v>
       </c>
       <c r="C47">
-        <v>0.04295114713347049</v>
+        <v>0.001725557132273227</v>
       </c>
       <c r="D47">
-        <v>-0.3535850414580218</v>
+        <v>-0.002355443477011984</v>
       </c>
       <c r="E47">
-        <v>-0.7266883509135297</v>
+        <v>-0.005145977786424274</v>
       </c>
       <c r="F47">
-        <v>-0.7106885365419348</v>
+        <v>-0.004272143990690086</v>
       </c>
       <c r="G47">
-        <v>-0.1990731074444013</v>
+        <v>-0.004200450882216078</v>
       </c>
       <c r="H47">
-        <v>-0.1335062664844383</v>
+        <v>-0.002472712288684096</v>
       </c>
       <c r="I47">
-        <v>0.2853051307032306</v>
+        <v>0.004648847396837469</v>
       </c>
       <c r="J47">
-        <v>-0.5423758665822516</v>
+        <v>-0.00245227794968174</v>
       </c>
       <c r="K47">
-        <v>-0.347592321636066</v>
+        <v>-0.000655891829101295</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.5970786437648272</v>
+        <v>-0.003514749715007896</v>
       </c>
       <c r="C48">
-        <v>0.4844891963729793</v>
+        <v>0.000221275002491907</v>
       </c>
       <c r="D48">
-        <v>-0.5261109733377493</v>
+        <v>-0.002219782431766263</v>
       </c>
       <c r="E48">
-        <v>-0.8925904089736523</v>
+        <v>-0.00389811373587813</v>
       </c>
       <c r="F48">
-        <v>-0.5970696140932173</v>
+        <v>-0.00333266085119298</v>
       </c>
       <c r="G48">
-        <v>-0.1306939517840636</v>
+        <v>-0.003495053597031674</v>
       </c>
       <c r="H48">
-        <v>-0.2474416504918076</v>
+        <v>-0.002109690969836181</v>
       </c>
       <c r="I48">
-        <v>0.5367258735409114</v>
+        <v>0.004075461280771671</v>
       </c>
       <c r="J48">
-        <v>-0.7758083266970516</v>
+        <v>-0.002308747810997497</v>
       </c>
       <c r="K48">
-        <v>-0.4466199419815985</v>
+        <v>-0.0007895104063210964</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.004707926949306539</v>
+        <v>-0.7606070637142185</v>
       </c>
       <c r="C49">
-        <v>0.0009099755778396306</v>
+        <v>0.04296925796837211</v>
       </c>
       <c r="D49">
-        <v>-0.00251946305003718</v>
+        <v>-0.6170568648371569</v>
       </c>
       <c r="E49">
-        <v>-0.00512521771051817</v>
+        <v>-0.9801647922891774</v>
       </c>
       <c r="F49">
-        <v>-0.004137506159700479</v>
+        <v>-0.4477642557635602</v>
       </c>
       <c r="G49">
-        <v>-0.003541981599045195</v>
+        <v>-0.04927708819193713</v>
       </c>
       <c r="H49">
-        <v>-0.002546471328069596</v>
+        <v>0.2431491333905634</v>
       </c>
       <c r="I49">
-        <v>0.004528886912241534</v>
+        <v>0.5864537462764867</v>
       </c>
       <c r="J49">
-        <v>-0.001025394047699727</v>
+        <v>-0.6626557369767536</v>
       </c>
       <c r="K49">
-        <v>-0.0005240074238003701</v>
+        <v>-0.4445140275972002</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5895990551639754</v>
+        <v>-0.5679914766489894</v>
       </c>
       <c r="C50">
-        <v>0.3365479196841629</v>
+        <v>0.1642550619985587</v>
       </c>
       <c r="D50">
-        <v>-0.3032080542062957</v>
+        <v>-0.3260457962804053</v>
       </c>
       <c r="E50">
-        <v>-0.9571355130703969</v>
+        <v>-0.5371125694754542</v>
       </c>
       <c r="F50">
-        <v>-0.5932528893110305</v>
+        <v>-0.4468612150989771</v>
       </c>
       <c r="G50">
-        <v>-0.5444316496073754</v>
+        <v>-0.1316920058456178</v>
       </c>
       <c r="H50">
-        <v>-0.2537224069220144</v>
+        <v>-0.1813037104359062</v>
       </c>
       <c r="I50">
-        <v>0.4874068320063225</v>
+        <v>0.3630199533126674</v>
       </c>
       <c r="J50">
-        <v>-1.030505615756449</v>
+        <v>-0.4848490485073157</v>
       </c>
       <c r="K50">
-        <v>-0.571562063790457</v>
+        <v>-0.1634360571262659</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.004655372079561219</v>
+        <v>-0.2459664964525439</v>
       </c>
       <c r="C51">
-        <v>0.001058465819192702</v>
+        <v>0.06207190420076251</v>
       </c>
       <c r="D51">
-        <v>-0.00204624250388174</v>
+        <v>-0.1124019101631815</v>
       </c>
       <c r="E51">
-        <v>-0.004796425588819672</v>
+        <v>-0.1979240544280677</v>
       </c>
       <c r="F51">
-        <v>-0.003663167321058676</v>
+        <v>-0.2103320128618755</v>
       </c>
       <c r="G51">
-        <v>-0.003962319756080914</v>
+        <v>-0.1804923687697002</v>
       </c>
       <c r="H51">
-        <v>-0.002607927021520189</v>
+        <v>-0.1387835482424402</v>
       </c>
       <c r="I51">
-        <v>0.004787981562908808</v>
+        <v>0.222454566946369</v>
       </c>
       <c r="J51">
-        <v>-0.0009921509141878077</v>
+        <v>-0.1429825891748029</v>
       </c>
       <c r="K51">
-        <v>-0.001565742578308811</v>
+        <v>-0.07967973143411008</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2194,34 +2194,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.4371069925608908</v>
+        <v>-0.3972085062321302</v>
       </c>
       <c r="C52">
-        <v>-0.01999967362059213</v>
+        <v>0.1201450405798559</v>
       </c>
       <c r="D52">
-        <v>-0.2994044151364112</v>
+        <v>-0.2510468415382429</v>
       </c>
       <c r="E52">
-        <v>-0.8221305822179326</v>
+        <v>-0.5092556136877132</v>
       </c>
       <c r="F52">
-        <v>-0.6708268964073165</v>
+        <v>-0.3921943823623457</v>
       </c>
       <c r="G52">
-        <v>-0.2321931381544949</v>
+        <v>-0.1965281194524469</v>
       </c>
       <c r="H52">
-        <v>-0.06398662425103532</v>
+        <v>-0.08171951525532339</v>
       </c>
       <c r="I52">
-        <v>0.656766333913834</v>
+        <v>0.3365781839118786</v>
       </c>
       <c r="J52">
-        <v>-1.285001456773719</v>
+        <v>-0.3017534203640845</v>
       </c>
       <c r="K52">
-        <v>-0.2485033447577782</v>
+        <v>-0.2327542717928562</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2229,34 +2229,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.02294061749186965</v>
+        <v>-0.409750432689466</v>
       </c>
       <c r="C53">
-        <v>0.005187857529197683</v>
+        <v>0.1984306953985977</v>
       </c>
       <c r="D53">
-        <v>-0.01518821222554287</v>
+        <v>-0.3017567189155798</v>
       </c>
       <c r="E53">
-        <v>-0.03420434580307876</v>
+        <v>-0.5879477646613549</v>
       </c>
       <c r="F53">
-        <v>-0.03043452177649416</v>
+        <v>-0.2832305909239685</v>
       </c>
       <c r="G53">
-        <v>-0.02366745569281012</v>
+        <v>-0.1417235457514021</v>
       </c>
       <c r="H53">
-        <v>-0.01933138543357853</v>
+        <v>-0.06023286128632092</v>
       </c>
       <c r="I53">
-        <v>0.02668671498173271</v>
+        <v>0.4560261190713485</v>
       </c>
       <c r="J53">
-        <v>-0.009848899844554965</v>
+        <v>-0.2828620058877059</v>
       </c>
       <c r="K53">
-        <v>-0.01475477498637207</v>
+        <v>0.06218947839829552</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2264,34 +2264,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4591895225268424</v>
+        <v>-0.9835397598700597</v>
       </c>
       <c r="C54">
-        <v>0.4395090131778191</v>
+        <v>0.03427363564066239</v>
       </c>
       <c r="D54">
-        <v>-0.4658496552307799</v>
+        <v>-0.6599303234330959</v>
       </c>
       <c r="E54">
-        <v>-0.71246552361243</v>
+        <v>-1.039728494158289</v>
       </c>
       <c r="F54">
-        <v>-0.5709576475072015</v>
+        <v>-0.7216752363335631</v>
       </c>
       <c r="G54">
-        <v>-0.2658650421858069</v>
+        <v>-0.1719298738151188</v>
       </c>
       <c r="H54">
-        <v>-0.2864426624164014</v>
+        <v>-0.001849634841877623</v>
       </c>
       <c r="I54">
-        <v>0.3950409433657948</v>
+        <v>0.7353558491843861</v>
       </c>
       <c r="J54">
-        <v>-0.7935957102916618</v>
+        <v>-0.5213589680085728</v>
       </c>
       <c r="K54">
-        <v>-0.4072195240130211</v>
+        <v>-0.3025733060898537</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2299,34 +2299,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.3499414691077255</v>
+        <v>-0.6280777092605278</v>
       </c>
       <c r="C55">
-        <v>0.09506469662915006</v>
+        <v>0.3574831814783357</v>
       </c>
       <c r="D55">
-        <v>-0.1634562450593371</v>
+        <v>-0.1635447333873356</v>
       </c>
       <c r="E55">
-        <v>-0.4577551616532263</v>
+        <v>-0.5906602884255522</v>
       </c>
       <c r="F55">
-        <v>-0.5147148839556517</v>
+        <v>-0.2727216459271309</v>
       </c>
       <c r="G55">
-        <v>-0.2535778832190397</v>
+        <v>-0.2952038722396132</v>
       </c>
       <c r="H55">
-        <v>-0.07425786188754528</v>
+        <v>-0.19072414734433</v>
       </c>
       <c r="I55">
-        <v>0.3783226380512869</v>
+        <v>0.7751449607148351</v>
       </c>
       <c r="J55">
-        <v>-0.3987847800416293</v>
+        <v>-0.4676069588672629</v>
       </c>
       <c r="K55">
-        <v>-0.1048859207626014</v>
+        <v>-0.5438975837443479</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2334,34 +2334,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.3676790386580867</v>
+        <v>-0.5955575010219472</v>
       </c>
       <c r="C56">
-        <v>0.5316136252496011</v>
+        <v>0.2122050183920732</v>
       </c>
       <c r="D56">
-        <v>-0.533873135317473</v>
+        <v>-0.3047584006837599</v>
       </c>
       <c r="E56">
-        <v>-0.6624378396978468</v>
+        <v>-0.6380490659008391</v>
       </c>
       <c r="F56">
-        <v>-0.5793606448163193</v>
+        <v>-0.5969887756350708</v>
       </c>
       <c r="G56">
-        <v>-0.111632913368489</v>
+        <v>-0.2650133165570161</v>
       </c>
       <c r="H56">
-        <v>-0.1495561131394762</v>
+        <v>-0.1731480740522677</v>
       </c>
       <c r="I56">
-        <v>0.2676464336191948</v>
+        <v>0.5562096987280905</v>
       </c>
       <c r="J56">
-        <v>-0.7112402168882905</v>
+        <v>-0.2979663655370208</v>
       </c>
       <c r="K56">
-        <v>-0.3846266193826082</v>
+        <v>-0.4117026342209881</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2369,34 +2369,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.2177178200787708</v>
+        <v>-0.4486824069448605</v>
       </c>
       <c r="C57">
-        <v>0.01234325734798921</v>
+        <v>0.09541798909128789</v>
       </c>
       <c r="D57">
-        <v>-0.1508218824234782</v>
+        <v>-0.2900304548382635</v>
       </c>
       <c r="E57">
-        <v>-0.2239679064154684</v>
+        <v>-0.5551137163441209</v>
       </c>
       <c r="F57">
-        <v>-0.2025081366529105</v>
+        <v>-0.2894946879690466</v>
       </c>
       <c r="G57">
-        <v>-0.198301104755353</v>
+        <v>-0.2588173419871357</v>
       </c>
       <c r="H57">
-        <v>-0.1555970824762004</v>
+        <v>-0.1089373747475841</v>
       </c>
       <c r="I57">
-        <v>0.1443935719576919</v>
+        <v>0.5472221491563325</v>
       </c>
       <c r="J57">
-        <v>-0.08974504137791034</v>
+        <v>-0.2103976619860435</v>
       </c>
       <c r="K57">
-        <v>-0.06470766971957496</v>
+        <v>-0.2105370478746389</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2404,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.4637220298953845</v>
+        <v>-0.005106935451613257</v>
       </c>
       <c r="C58">
-        <v>0.04478239510430072</v>
+        <v>0.001636078904196095</v>
       </c>
       <c r="D58">
-        <v>-0.3731889315056625</v>
+        <v>-0.002916836136033036</v>
       </c>
       <c r="E58">
-        <v>-0.7547121509656114</v>
+        <v>-0.004640546141819154</v>
       </c>
       <c r="F58">
-        <v>-0.6832769458270214</v>
+        <v>-0.003341044488953719</v>
       </c>
       <c r="G58">
-        <v>-0.08222235551614795</v>
+        <v>-0.004338381026018499</v>
       </c>
       <c r="H58">
-        <v>-0.05860616824803063</v>
+        <v>-0.002825269774326991</v>
       </c>
       <c r="I58">
-        <v>0.7091520067249782</v>
+        <v>0.004953747221047673</v>
       </c>
       <c r="J58">
-        <v>-1.13315444094323</v>
+        <v>-0.002532091676164094</v>
       </c>
       <c r="K58">
-        <v>-0.1397445728275524</v>
+        <v>-0.0007956069892957797</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2439,34 +2439,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.2048108416696451</v>
+        <v>-0.504519975705071</v>
       </c>
       <c r="C59">
-        <v>0.06801662560078273</v>
+        <v>0.3255864606913008</v>
       </c>
       <c r="D59">
-        <v>-0.1174826623226187</v>
+        <v>-0.3267146202604934</v>
       </c>
       <c r="E59">
-        <v>-0.257657637046999</v>
+        <v>-0.4053380508002362</v>
       </c>
       <c r="F59">
-        <v>-0.1946650235853569</v>
+        <v>-0.3398087797712699</v>
       </c>
       <c r="G59">
-        <v>-0.1679597085663497</v>
+        <v>-0.1730782993011017</v>
       </c>
       <c r="H59">
-        <v>-0.10188501043764</v>
+        <v>-0.2578009078460621</v>
       </c>
       <c r="I59">
-        <v>0.1675093616828581</v>
+        <v>0.538241044047966</v>
       </c>
       <c r="J59">
-        <v>-0.06325327609803309</v>
+        <v>-0.3502023399983862</v>
       </c>
       <c r="K59">
-        <v>0.01124692007883146</v>
+        <v>-0.1047557967828744</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,34 +2474,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2150719462587852</v>
+        <v>-0.5038369695473033</v>
       </c>
       <c r="C60">
-        <v>0.07292034309569514</v>
+        <v>0.2223248159153523</v>
       </c>
       <c r="D60">
-        <v>-0.1037639122687918</v>
+        <v>-0.1980385860670535</v>
       </c>
       <c r="E60">
-        <v>-0.2408826194696179</v>
+        <v>-0.6727452266595327</v>
       </c>
       <c r="F60">
-        <v>-0.2133762078707763</v>
+        <v>-0.5015981992760936</v>
       </c>
       <c r="G60">
-        <v>-0.2008155863238123</v>
+        <v>-0.1877956246169771</v>
       </c>
       <c r="H60">
-        <v>-0.1179933943749626</v>
+        <v>0.01597035390384936</v>
       </c>
       <c r="I60">
-        <v>0.1722116939622713</v>
+        <v>0.328201788213804</v>
       </c>
       <c r="J60">
-        <v>-0.1118624068434646</v>
+        <v>-0.3889048166800484</v>
       </c>
       <c r="K60">
-        <v>-0.1085546802788408</v>
+        <v>-0.3679571599080317</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2509,34 +2509,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.1891738443178985</v>
+        <v>-0.7432386755852795</v>
       </c>
       <c r="C61">
-        <v>0.05513165012067626</v>
+        <v>0.1792296049219929</v>
       </c>
       <c r="D61">
-        <v>-0.09015716161141309</v>
+        <v>-0.4293888725879492</v>
       </c>
       <c r="E61">
-        <v>-0.2365915760297863</v>
+        <v>-0.7599784212071329</v>
       </c>
       <c r="F61">
-        <v>-0.2651812322479189</v>
+        <v>-0.6842614561456305</v>
       </c>
       <c r="G61">
-        <v>-0.1623297970216006</v>
+        <v>-0.2968365214997256</v>
       </c>
       <c r="H61">
-        <v>-0.09481189004840165</v>
+        <v>-0.2140159321392963</v>
       </c>
       <c r="I61">
-        <v>0.1176051102382848</v>
+        <v>0.4712861789888757</v>
       </c>
       <c r="J61">
-        <v>-0.07070286012791738</v>
+        <v>-0.3968596617944666</v>
       </c>
       <c r="K61">
-        <v>-0.1012522621612715</v>
+        <v>-0.3187767035011545</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2544,34 +2544,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.004030558545633192</v>
+        <v>-0.6194725709996401</v>
       </c>
       <c r="C62">
-        <v>0.0008776517223058565</v>
+        <v>-0.0268643853330006</v>
       </c>
       <c r="D62">
-        <v>-0.002208012601618105</v>
+        <v>-0.3587354869951304</v>
       </c>
       <c r="E62">
-        <v>-0.00508462218407049</v>
+        <v>-0.8199041548583543</v>
       </c>
       <c r="F62">
-        <v>-0.003993696983129811</v>
+        <v>-0.3441509618426117</v>
       </c>
       <c r="G62">
-        <v>-0.003291245898590855</v>
+        <v>-0.2919724698265441</v>
       </c>
       <c r="H62">
-        <v>-0.002270478088247656</v>
+        <v>0.01071255951454919</v>
       </c>
       <c r="I62">
-        <v>0.00369750938374254</v>
+        <v>0.5274249714460287</v>
       </c>
       <c r="J62">
-        <v>-0.001235824901140174</v>
+        <v>-0.5188685544818415</v>
       </c>
       <c r="K62">
-        <v>-0.001402208286670819</v>
+        <v>-0.08474552809089121</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2579,34 +2579,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.03630655235508885</v>
+        <v>-0.006143764967027976</v>
       </c>
       <c r="C63">
-        <v>0.008412870657396052</v>
+        <v>0.001321719828418663</v>
       </c>
       <c r="D63">
-        <v>-0.02164742876343068</v>
+        <v>-0.002424038367089869</v>
       </c>
       <c r="E63">
-        <v>-0.04333546924554833</v>
+        <v>-0.005018910848127635</v>
       </c>
       <c r="F63">
-        <v>-0.03637821714384469</v>
+        <v>-0.004219649864906402</v>
       </c>
       <c r="G63">
-        <v>-0.03046073419446322</v>
+        <v>-0.004732919802397004</v>
       </c>
       <c r="H63">
-        <v>-0.02422069574620379</v>
+        <v>-0.003143866785580941</v>
       </c>
       <c r="I63">
-        <v>0.031999475367603</v>
+        <v>0.004781723091740647</v>
       </c>
       <c r="J63">
-        <v>-0.008595720691863354</v>
+        <v>-0.003977658393989044</v>
       </c>
       <c r="K63">
-        <v>-0.009614323918430517</v>
+        <v>0.001156007408873808</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2614,34 +2614,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.2071715134658395</v>
+        <v>-0.2615898288508409</v>
       </c>
       <c r="C64">
-        <v>0.03337558366191674</v>
+        <v>0.06415910218617214</v>
       </c>
       <c r="D64">
-        <v>-0.09914693928053375</v>
+        <v>-0.07420598653153464</v>
       </c>
       <c r="E64">
-        <v>-0.2711186055610758</v>
+        <v>-0.245782299435715</v>
       </c>
       <c r="F64">
-        <v>-0.2931967308222411</v>
+        <v>-0.2053255122208482</v>
       </c>
       <c r="G64">
-        <v>-0.133398386451749</v>
+        <v>-0.1602984272768563</v>
       </c>
       <c r="H64">
-        <v>-0.0738917399943634</v>
+        <v>-0.1176909269997142</v>
       </c>
       <c r="I64">
-        <v>0.1333794851453301</v>
+        <v>0.2725781884397631</v>
       </c>
       <c r="J64">
-        <v>-0.07285506869920658</v>
+        <v>-0.1319634783883321</v>
       </c>
       <c r="K64">
-        <v>-0.02651998219990011</v>
+        <v>0.0142761757651628</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,34 +2649,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5124430671179371</v>
+        <v>-0.6367375610425059</v>
       </c>
       <c r="C65">
-        <v>0.2288232918015379</v>
+        <v>0.1861347385595348</v>
       </c>
       <c r="D65">
-        <v>-0.2256563208525067</v>
+        <v>-0.4540262628989672</v>
       </c>
       <c r="E65">
-        <v>-0.7232991228472666</v>
+        <v>-0.6769399779891706</v>
       </c>
       <c r="F65">
-        <v>-0.6735491382870552</v>
+        <v>-0.3246501514074416</v>
       </c>
       <c r="G65">
-        <v>-0.4620687603760108</v>
+        <v>-0.3418387886448825</v>
       </c>
       <c r="H65">
-        <v>-0.2460886428651742</v>
+        <v>-0.1046268182419478</v>
       </c>
       <c r="I65">
-        <v>0.6125905496799677</v>
+        <v>0.630817916425054</v>
       </c>
       <c r="J65">
-        <v>-1.209240153392752</v>
+        <v>-0.3588640870167581</v>
       </c>
       <c r="K65">
-        <v>-0.3578135434317903</v>
+        <v>-0.4508895701696552</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2684,34 +2684,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.004367769363763475</v>
+        <v>-0.7105266095705939</v>
       </c>
       <c r="C66">
-        <v>0.001357009609458709</v>
+        <v>0.1291148990621841</v>
       </c>
       <c r="D66">
-        <v>-0.002143738667868542</v>
+        <v>-0.1892587662042605</v>
       </c>
       <c r="E66">
-        <v>-0.004593516447677758</v>
+        <v>-0.9141976793204707</v>
       </c>
       <c r="F66">
-        <v>-0.00363596020431842</v>
+        <v>-0.6396467600389857</v>
       </c>
       <c r="G66">
-        <v>-0.003733256605154557</v>
+        <v>-0.3273437889522969</v>
       </c>
       <c r="H66">
-        <v>-0.002275961245411859</v>
+        <v>-0.00276277327057708</v>
       </c>
       <c r="I66">
-        <v>0.004822139545392705</v>
+        <v>0.5689904786064818</v>
       </c>
       <c r="J66">
-        <v>-0.001234563021500379</v>
+        <v>-0.3394829871896283</v>
       </c>
       <c r="K66">
-        <v>-0.001263681938683943</v>
+        <v>-0.4104102409746749</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2719,34 +2719,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.003291234796020212</v>
+        <v>-0.8629965739843827</v>
       </c>
       <c r="C67">
-        <v>0.001445891842222193</v>
+        <v>0.08371728579272605</v>
       </c>
       <c r="D67">
-        <v>-0.001588656406369521</v>
+        <v>-0.4234604865972518</v>
       </c>
       <c r="E67">
-        <v>-0.003863462924005626</v>
+        <v>-1.075561149231148</v>
       </c>
       <c r="F67">
-        <v>-0.003561419152065841</v>
+        <v>-0.4725489407870218</v>
       </c>
       <c r="G67">
-        <v>-0.003585520989520634</v>
+        <v>-0.245275947377108</v>
       </c>
       <c r="H67">
-        <v>-0.002631958303574046</v>
+        <v>0.02513663231472668</v>
       </c>
       <c r="I67">
-        <v>0.003227171205366787</v>
+        <v>0.673537215717127</v>
       </c>
       <c r="J67">
-        <v>-0.001026356963085911</v>
+        <v>-0.5799387541146441</v>
       </c>
       <c r="K67">
-        <v>-0.001218583764437607</v>
+        <v>-0.5180524533409384</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2754,34 +2754,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.4454718988981813</v>
+        <v>-0.004693595210896046</v>
       </c>
       <c r="C68">
-        <v>0.3721002697098058</v>
+        <v>0.00199167819751053</v>
       </c>
       <c r="D68">
-        <v>-0.3427658709105691</v>
+        <v>-0.001665425228778043</v>
       </c>
       <c r="E68">
-        <v>-0.4564142634735278</v>
+        <v>-0.0050874498817044</v>
       </c>
       <c r="F68">
-        <v>-0.5232809247792538</v>
+        <v>-0.004775056201551921</v>
       </c>
       <c r="G68">
-        <v>-0.1424505047565836</v>
+        <v>-0.003342599300773816</v>
       </c>
       <c r="H68">
-        <v>-0.2724242635510648</v>
+        <v>-0.001453770153809016</v>
       </c>
       <c r="I68">
-        <v>0.2729650938488639</v>
+        <v>0.004245974559557902</v>
       </c>
       <c r="J68">
-        <v>-0.2049263965109387</v>
+        <v>-0.002698297771745531</v>
       </c>
       <c r="K68">
-        <v>-0.2400519033202625</v>
+        <v>0.000273140854085231</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2789,34 +2789,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.3443529227014451</v>
+        <v>-0.6038049084763989</v>
       </c>
       <c r="C69">
-        <v>0.1042908709941684</v>
+        <v>0.4049277545992757</v>
       </c>
       <c r="D69">
-        <v>-0.2643695591252219</v>
+        <v>-0.3603274793729527</v>
       </c>
       <c r="E69">
-        <v>-0.8366398670214875</v>
+        <v>-0.6767257844487389</v>
       </c>
       <c r="F69">
-        <v>-0.4414151818508375</v>
+        <v>-0.449466233242042</v>
       </c>
       <c r="G69">
-        <v>-0.3403070412495434</v>
+        <v>-0.2144916885183207</v>
       </c>
       <c r="H69">
-        <v>-0.2086834210417809</v>
+        <v>-0.1520643941954029</v>
       </c>
       <c r="I69">
-        <v>0.4679125236398959</v>
+        <v>0.3886747889831541</v>
       </c>
       <c r="J69">
-        <v>-1.443941379893188</v>
+        <v>-0.3448542997567428</v>
       </c>
       <c r="K69">
-        <v>-0.3209296520548853</v>
+        <v>-0.290854226138912</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2824,34 +2824,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.00445744871940525</v>
+        <v>-0.4724763855376668</v>
       </c>
       <c r="C70">
-        <v>0.0004310673255367711</v>
+        <v>0.1152982457467657</v>
       </c>
       <c r="D70">
-        <v>-0.00279961766559334</v>
+        <v>-0.1165310476608325</v>
       </c>
       <c r="E70">
-        <v>-0.004630779503171963</v>
+        <v>-0.3739703216295145</v>
       </c>
       <c r="F70">
-        <v>-0.004200635367466243</v>
+        <v>-0.2857483569681515</v>
       </c>
       <c r="G70">
-        <v>-0.003589105788944253</v>
+        <v>-0.3381370517461741</v>
       </c>
       <c r="H70">
-        <v>-0.002507260403341488</v>
+        <v>-0.09719068979094399</v>
       </c>
       <c r="I70">
-        <v>0.003888194086913605</v>
+        <v>0.5481156412245628</v>
       </c>
       <c r="J70">
-        <v>-0.0009086701645813177</v>
+        <v>-0.3828971935191013</v>
       </c>
       <c r="K70">
-        <v>-0.001935934960762353</v>
+        <v>-0.120181277251324</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2859,34 +2859,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.6096978617282017</v>
+        <v>-0.006157732452238249</v>
       </c>
       <c r="C71">
-        <v>0.3446934635033946</v>
+        <v>0.001537775211785738</v>
       </c>
       <c r="D71">
-        <v>-0.232175521306327</v>
+        <v>-0.002548372396793428</v>
       </c>
       <c r="E71">
-        <v>-0.8099041679441537</v>
+        <v>-0.005413239598509363</v>
       </c>
       <c r="F71">
-        <v>-0.7058570218738728</v>
+        <v>-0.004013803412686424</v>
       </c>
       <c r="G71">
-        <v>-0.4143729018085688</v>
+        <v>-0.004793103636437295</v>
       </c>
       <c r="H71">
-        <v>-0.2198108844775403</v>
+        <v>-0.003052013420439056</v>
       </c>
       <c r="I71">
-        <v>0.4184860659484578</v>
+        <v>0.004930343596108215</v>
       </c>
       <c r="J71">
-        <v>-0.5879875470443708</v>
+        <v>-0.003511695090408583</v>
       </c>
       <c r="K71">
-        <v>-0.5951342160905154</v>
+        <v>0.0002036818939787678</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2894,34 +2894,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.3593602701101917</v>
+        <v>-0.6442886413515402</v>
       </c>
       <c r="C72">
-        <v>0.231337481169034</v>
+        <v>0.5360162790245808</v>
       </c>
       <c r="D72">
-        <v>-0.1728285115550775</v>
+        <v>-0.4605401932963117</v>
       </c>
       <c r="E72">
-        <v>-0.7707583424362232</v>
+        <v>-0.4512595522589222</v>
       </c>
       <c r="F72">
-        <v>-0.3983206859334182</v>
+        <v>-0.4999949455621195</v>
       </c>
       <c r="G72">
-        <v>-0.2149658183197602</v>
+        <v>-0.04179089342784137</v>
       </c>
       <c r="H72">
-        <v>-0.1122248398627166</v>
+        <v>-0.272265425526098</v>
       </c>
       <c r="I72">
-        <v>0.5874307191016561</v>
+        <v>0.6426821649789763</v>
       </c>
       <c r="J72">
-        <v>-0.9228056416704589</v>
+        <v>-0.5097843301731293</v>
       </c>
       <c r="K72">
-        <v>-0.3923246125086367</v>
+        <v>-0.291701501694257</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2929,34 +2929,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.04372399198945239</v>
+        <v>-0.2232866599267832</v>
       </c>
       <c r="C73">
-        <v>0.001642344695148555</v>
+        <v>0.05595643962233293</v>
       </c>
       <c r="D73">
-        <v>-0.03070928344883534</v>
+        <v>-0.1382929708958673</v>
       </c>
       <c r="E73">
-        <v>-0.0477025738192866</v>
+        <v>-0.2645344112570649</v>
       </c>
       <c r="F73">
-        <v>-0.03989478517350454</v>
+        <v>-0.1368451232284506</v>
       </c>
       <c r="G73">
-        <v>-0.02676053434119731</v>
+        <v>-0.1234355997482211</v>
       </c>
       <c r="H73">
-        <v>-0.02152688135090552</v>
+        <v>-0.05521692188250976</v>
       </c>
       <c r="I73">
-        <v>0.0373606941576844</v>
+        <v>0.2326965240127432</v>
       </c>
       <c r="J73">
-        <v>-0.007424962826266463</v>
+        <v>-0.1609387012619522</v>
       </c>
       <c r="K73">
-        <v>-0.0136710090839079</v>
+        <v>-0.05260200673453595</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2964,34 +2964,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.3432203213434329</v>
+        <v>-0.2073747418016575</v>
       </c>
       <c r="C74">
-        <v>0.1902252906130015</v>
+        <v>0.09042704618489199</v>
       </c>
       <c r="D74">
-        <v>-0.1277519741111337</v>
+        <v>-0.09018928304635133</v>
       </c>
       <c r="E74">
-        <v>-0.695814415978307</v>
+        <v>-0.2628504240846616</v>
       </c>
       <c r="F74">
-        <v>-0.6887011436986271</v>
+        <v>-0.1792399831995385</v>
       </c>
       <c r="G74">
-        <v>-0.3169395443794266</v>
+        <v>-0.1257842578230614</v>
       </c>
       <c r="H74">
-        <v>-0.1095651583284149</v>
+        <v>-0.04258432862206234</v>
       </c>
       <c r="I74">
-        <v>0.4251995998639703</v>
+        <v>0.2026834664217781</v>
       </c>
       <c r="J74">
-        <v>-1.044389921427167</v>
+        <v>-0.1361890305270624</v>
       </c>
       <c r="K74">
-        <v>-0.4130587116808445</v>
+        <v>-0.04125629242897277</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2999,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.003797457056590345</v>
+        <v>-0.003770744546135507</v>
       </c>
       <c r="C75">
-        <v>0.0009700294793060088</v>
+        <v>0.0002261506916293249</v>
       </c>
       <c r="D75">
-        <v>-0.001887099182403183</v>
+        <v>-0.002276489267047644</v>
       </c>
       <c r="E75">
-        <v>-0.004017617091039847</v>
+        <v>-0.004077355515308515</v>
       </c>
       <c r="F75">
-        <v>-0.004357873623877022</v>
+        <v>-0.003230528184815028</v>
       </c>
       <c r="G75">
-        <v>-0.003735690895303073</v>
+        <v>-0.004162848325536869</v>
       </c>
       <c r="H75">
-        <v>-0.002666834152767917</v>
+        <v>-0.002547334627511026</v>
       </c>
       <c r="I75">
-        <v>0.002652034810399238</v>
+        <v>0.003790636383759583</v>
       </c>
       <c r="J75">
-        <v>-0.001025267494285695</v>
+        <v>-0.002122984209595829</v>
       </c>
       <c r="K75">
-        <v>-0.002426096935104351</v>
+        <v>-0.0007880184581603976</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3034,34 +3034,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.427387354088737</v>
+        <v>-0.5497620853531907</v>
       </c>
       <c r="C76">
-        <v>0.1852753532258023</v>
+        <v>0.1912772773315037</v>
       </c>
       <c r="D76">
-        <v>-0.1212157410034773</v>
+        <v>-0.2781538562985659</v>
       </c>
       <c r="E76">
-        <v>-0.5579781078580506</v>
+        <v>-0.6924834634074026</v>
       </c>
       <c r="F76">
-        <v>-0.6635228530414622</v>
+        <v>-0.4699384766283261</v>
       </c>
       <c r="G76">
-        <v>-0.3180690962302094</v>
+        <v>-0.3877603771813574</v>
       </c>
       <c r="H76">
-        <v>-0.2159763590820355</v>
+        <v>-0.03112707348129552</v>
       </c>
       <c r="I76">
-        <v>0.536107396044485</v>
+        <v>0.4147249187063758</v>
       </c>
       <c r="J76">
-        <v>-0.8274443996605899</v>
+        <v>-0.2206798706246502</v>
       </c>
       <c r="K76">
-        <v>-0.1534656491713071</v>
+        <v>-0.2054267649617689</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3069,34 +3069,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.3597810529923666</v>
+        <v>-0.5244082929672685</v>
       </c>
       <c r="C77">
-        <v>0.094587576292558</v>
+        <v>0.2142529272584609</v>
       </c>
       <c r="D77">
-        <v>-0.2886778561218955</v>
+        <v>-0.2008054157862846</v>
       </c>
       <c r="E77">
-        <v>-0.5653039779333886</v>
+        <v>-0.5415772240877628</v>
       </c>
       <c r="F77">
-        <v>-0.5044985437417429</v>
+        <v>-0.446805902754051</v>
       </c>
       <c r="G77">
-        <v>-0.1810184123247311</v>
+        <v>-0.2210127698199334</v>
       </c>
       <c r="H77">
-        <v>-0.1756285272024755</v>
+        <v>-0.2088396077128183</v>
       </c>
       <c r="I77">
-        <v>0.4076323157399205</v>
+        <v>0.6462563334282978</v>
       </c>
       <c r="J77">
-        <v>-0.3532736952600534</v>
+        <v>-0.1478938218384052</v>
       </c>
       <c r="K77">
-        <v>-0.1284769109077203</v>
+        <v>-0.6204707256970863</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3104,34 +3104,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.4499817538498628</v>
+        <v>-0.03987415053133389</v>
       </c>
       <c r="C78">
-        <v>0.2150550927922465</v>
+        <v>0.01457877425879836</v>
       </c>
       <c r="D78">
-        <v>-0.1988669991448204</v>
+        <v>-0.01907182260696509</v>
       </c>
       <c r="E78">
-        <v>-0.747391366409622</v>
+        <v>-0.0468792628989192</v>
       </c>
       <c r="F78">
-        <v>-0.5439014462858317</v>
+        <v>-0.02775050646789466</v>
       </c>
       <c r="G78">
-        <v>-0.2781156487931494</v>
+        <v>-0.03426490930366016</v>
       </c>
       <c r="H78">
-        <v>-0.1530877882970357</v>
+        <v>-0.0214016121125066</v>
       </c>
       <c r="I78">
-        <v>0.6970940233140475</v>
+        <v>0.03951645830976912</v>
       </c>
       <c r="J78">
-        <v>-1.223940225578421</v>
+        <v>-0.01873228872577843</v>
       </c>
       <c r="K78">
-        <v>-0.15190857762394</v>
+        <v>-0.01202073377494742</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3139,34 +3139,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4715507070944969</v>
+        <v>-0.005189448732064266</v>
       </c>
       <c r="C79">
-        <v>0.1798501025556331</v>
+        <v>0.002518073715013839</v>
       </c>
       <c r="D79">
-        <v>-0.3666597467646229</v>
+        <v>-0.001761437252843485</v>
       </c>
       <c r="E79">
-        <v>-0.927863202161802</v>
+        <v>-0.006300383955186022</v>
       </c>
       <c r="F79">
-        <v>-0.5831914037398056</v>
+        <v>-0.003125179625783887</v>
       </c>
       <c r="G79">
-        <v>-0.2722527366969724</v>
+        <v>-0.003808130030575535</v>
       </c>
       <c r="H79">
-        <v>-0.1262565902610189</v>
+        <v>-0.001427394736377011</v>
       </c>
       <c r="I79">
-        <v>0.2063915221046503</v>
+        <v>0.0046002034802665</v>
       </c>
       <c r="J79">
-        <v>-0.7812228132648098</v>
+        <v>-0.002700109915841146</v>
       </c>
       <c r="K79">
-        <v>-0.5903389207918283</v>
+        <v>0.0003457859521362778</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3174,34 +3174,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.3704085651501516</v>
+        <v>-0.4706608749591025</v>
       </c>
       <c r="C80">
-        <v>0.04929632666720216</v>
+        <v>0.1312148827214858</v>
       </c>
       <c r="D80">
-        <v>-0.2871227962394935</v>
+        <v>-0.1398287338932082</v>
       </c>
       <c r="E80">
-        <v>-0.6681673847467157</v>
+        <v>-0.5110191493648285</v>
       </c>
       <c r="F80">
-        <v>-0.6845896835316538</v>
+        <v>-0.3280389835842022</v>
       </c>
       <c r="G80">
-        <v>-0.2337964075383581</v>
+        <v>-0.3473945360745773</v>
       </c>
       <c r="H80">
-        <v>-0.2397027975228349</v>
+        <v>-0.01697579037152208</v>
       </c>
       <c r="I80">
-        <v>0.4580012262605099</v>
+        <v>0.3519116102615111</v>
       </c>
       <c r="J80">
-        <v>-1.041180070483047</v>
+        <v>-0.3779918681737686</v>
       </c>
       <c r="K80">
-        <v>-0.3713699754712932</v>
+        <v>-0.2258139644280077</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3209,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.4010799581246361</v>
+        <v>-0.004344558273089814</v>
       </c>
       <c r="C81">
-        <v>-0.05674539025528562</v>
+        <v>0.00167090825943354</v>
       </c>
       <c r="D81">
-        <v>-0.4701666783272013</v>
+        <v>-0.001587831835102038</v>
       </c>
       <c r="E81">
-        <v>-0.6181257877498413</v>
+        <v>-0.003770888984206553</v>
       </c>
       <c r="F81">
-        <v>-0.4436099155142409</v>
+        <v>-0.003384487094826344</v>
       </c>
       <c r="G81">
-        <v>-0.2985929201034713</v>
+        <v>-0.004351477217133036</v>
       </c>
       <c r="H81">
-        <v>-0.2423410914445209</v>
+        <v>-0.002993234054226472</v>
       </c>
       <c r="I81">
-        <v>0.4597162355238103</v>
+        <v>0.004229021934887386</v>
       </c>
       <c r="J81">
-        <v>-1.377208567790365</v>
+        <v>-0.00320679693505012</v>
       </c>
       <c r="K81">
-        <v>-0.08607724396936736</v>
+        <v>-0.0001299293192657844</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3244,34 +3244,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3997991710966866</v>
+        <v>-0.5160171456842576</v>
       </c>
       <c r="C82">
-        <v>-0.01558565024473548</v>
+        <v>0.09438454205121941</v>
       </c>
       <c r="D82">
-        <v>-0.2123241965797298</v>
+        <v>-0.2322663414402509</v>
       </c>
       <c r="E82">
-        <v>-0.5932663554845299</v>
+        <v>-0.6278016462094508</v>
       </c>
       <c r="F82">
-        <v>-0.5057187406233277</v>
+        <v>-0.4323235526140051</v>
       </c>
       <c r="G82">
-        <v>-0.2404014942725929</v>
+        <v>-0.4344678925732663</v>
       </c>
       <c r="H82">
-        <v>0.004696657441126291</v>
+        <v>-0.03342024707255759</v>
       </c>
       <c r="I82">
-        <v>0.3237330327359896</v>
+        <v>0.5459617659251407</v>
       </c>
       <c r="J82">
-        <v>-0.1209541212411917</v>
+        <v>-0.2125832253434325</v>
       </c>
       <c r="K82">
-        <v>-0.1761988973745067</v>
+        <v>-0.2470398752483313</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3279,34 +3279,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.5312726302027878</v>
+        <v>-0.7869887130517259</v>
       </c>
       <c r="C83">
-        <v>0.3576910011540239</v>
+        <v>0.1797936727390801</v>
       </c>
       <c r="D83">
-        <v>-0.7230189867109477</v>
+        <v>-0.4117192470148821</v>
       </c>
       <c r="E83">
-        <v>-0.8012979139934969</v>
+        <v>-0.6761191438996709</v>
       </c>
       <c r="F83">
-        <v>-0.8650286786891723</v>
+        <v>-0.4393182293471525</v>
       </c>
       <c r="G83">
-        <v>-0.14334665185479</v>
+        <v>-0.2872029340957648</v>
       </c>
       <c r="H83">
-        <v>-0.09389013945366458</v>
+        <v>0.07874845513882901</v>
       </c>
       <c r="I83">
-        <v>0.4175198333029704</v>
+        <v>0.6938358528016876</v>
       </c>
       <c r="J83">
-        <v>-1.395821067518538</v>
+        <v>-0.4618995244879943</v>
       </c>
       <c r="K83">
-        <v>-0.3665134266289762</v>
+        <v>0.04390589309375246</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3314,34 +3314,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.6127650542589416</v>
+        <v>-0.7203202694854606</v>
       </c>
       <c r="C84">
-        <v>0.1015479386607677</v>
+        <v>0.1222685592230237</v>
       </c>
       <c r="D84">
-        <v>-0.3556268705392336</v>
+        <v>-0.3952042325934958</v>
       </c>
       <c r="E84">
-        <v>-1.008784215708102</v>
+        <v>-0.9305854221546498</v>
       </c>
       <c r="F84">
-        <v>-0.7233772171454339</v>
+        <v>-0.5888757542506536</v>
       </c>
       <c r="G84">
-        <v>-0.2472284134608437</v>
+        <v>-0.1995948487105834</v>
       </c>
       <c r="H84">
-        <v>-0.1299249158954528</v>
+        <v>0.04366470495517659</v>
       </c>
       <c r="I84">
-        <v>0.6062125914826844</v>
+        <v>0.5329044895358168</v>
       </c>
       <c r="J84">
-        <v>-1.021024147732488</v>
+        <v>-0.1114291154981475</v>
       </c>
       <c r="K84">
-        <v>-0.04880220791505008</v>
+        <v>-0.1310824806362331</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3349,34 +3349,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2014159672975089</v>
+        <v>-0.5881231415714825</v>
       </c>
       <c r="C85">
-        <v>0.05147571976520266</v>
+        <v>0.2628069342458035</v>
       </c>
       <c r="D85">
-        <v>-0.1141411256954514</v>
+        <v>-0.14403456722716</v>
       </c>
       <c r="E85">
-        <v>-0.2417578617657982</v>
+        <v>-0.5713090665272731</v>
       </c>
       <c r="F85">
-        <v>-0.2434336531801529</v>
+        <v>-0.4463424117648976</v>
       </c>
       <c r="G85">
-        <v>-0.1229015918121937</v>
+        <v>-0.2358988765881081</v>
       </c>
       <c r="H85">
-        <v>-0.1124713472642249</v>
+        <v>-0.02556887798326524</v>
       </c>
       <c r="I85">
-        <v>0.1863186737410054</v>
+        <v>0.7643133911222448</v>
       </c>
       <c r="J85">
-        <v>-0.069986302862431</v>
+        <v>-0.3310339491559371</v>
       </c>
       <c r="K85">
-        <v>-0.06866183580516164</v>
+        <v>-0.4827384658702342</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3384,34 +3384,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5159370725593376</v>
+        <v>-0.4990274808985472</v>
       </c>
       <c r="C86">
-        <v>0.070120848544237</v>
+        <v>0.07327691925335111</v>
       </c>
       <c r="D86">
-        <v>-0.2045179378847214</v>
+        <v>-0.2609296565143501</v>
       </c>
       <c r="E86">
-        <v>-0.6346888120944532</v>
+        <v>-0.4822396616964962</v>
       </c>
       <c r="F86">
-        <v>-0.7028030038614577</v>
+        <v>-0.3378929495799791</v>
       </c>
       <c r="G86">
-        <v>-0.2985238266731142</v>
+        <v>-0.2467059463881088</v>
       </c>
       <c r="H86">
-        <v>-0.2463215154337393</v>
+        <v>-0.1251224124958506</v>
       </c>
       <c r="I86">
-        <v>0.4995957187825095</v>
+        <v>0.634495009088586</v>
       </c>
       <c r="J86">
-        <v>-0.4704489309666499</v>
+        <v>-0.5107456748273952</v>
       </c>
       <c r="K86">
-        <v>-0.4343518161935312</v>
+        <v>-0.1985958721985392</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3419,34 +3419,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.004885321803613416</v>
+        <v>-0.6118311747222003</v>
       </c>
       <c r="C87">
-        <v>0.001151485492368774</v>
+        <v>0.4933225211824681</v>
       </c>
       <c r="D87">
-        <v>-0.002479400430708044</v>
+        <v>-0.4861456249736283</v>
       </c>
       <c r="E87">
-        <v>-0.004941532533480422</v>
+        <v>-0.4762028329118437</v>
       </c>
       <c r="F87">
-        <v>-0.004413400478924395</v>
+        <v>-0.4889211739305592</v>
       </c>
       <c r="G87">
-        <v>-0.004096760950524684</v>
+        <v>-0.161770003789507</v>
       </c>
       <c r="H87">
-        <v>-0.003071487459384938</v>
+        <v>-0.1685874280184551</v>
       </c>
       <c r="I87">
-        <v>0.003580224299310015</v>
+        <v>0.5700694653550316</v>
       </c>
       <c r="J87">
-        <v>-0.0009359393524471912</v>
+        <v>-0.3784034398035348</v>
       </c>
       <c r="K87">
-        <v>-0.001641458633403156</v>
+        <v>-0.1233467314597273</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3454,34 +3454,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.6030763483105371</v>
+        <v>-0.6672972258279433</v>
       </c>
       <c r="C88">
-        <v>0.4046947973872902</v>
+        <v>0.2812157886248369</v>
       </c>
       <c r="D88">
-        <v>-0.1516531704870146</v>
+        <v>-0.335656345880498</v>
       </c>
       <c r="E88">
-        <v>-0.7339197881767473</v>
+        <v>-0.66439956563382</v>
       </c>
       <c r="F88">
-        <v>-0.8310743221811211</v>
+        <v>-0.3962454334538092</v>
       </c>
       <c r="G88">
-        <v>-0.4347184535347601</v>
+        <v>-0.4257435886691877</v>
       </c>
       <c r="H88">
-        <v>-0.2446870715797734</v>
+        <v>-0.2580899898105292</v>
       </c>
       <c r="I88">
-        <v>0.5034530717752512</v>
+        <v>0.7568888443930892</v>
       </c>
       <c r="J88">
-        <v>-1.11997443764401</v>
+        <v>-0.2397154623182338</v>
       </c>
       <c r="K88">
-        <v>-0.4439855219099793</v>
+        <v>-0.4902217821704528</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3489,34 +3489,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.4053707995969794</v>
+        <v>-0.6351285778596345</v>
       </c>
       <c r="C89">
-        <v>0.2189414667973392</v>
+        <v>0.2004378110868309</v>
       </c>
       <c r="D89">
-        <v>-0.3076503900818924</v>
+        <v>-0.1868812839890872</v>
       </c>
       <c r="E89">
-        <v>-0.7146664679752166</v>
+        <v>-0.620494770453884</v>
       </c>
       <c r="F89">
-        <v>-0.5205921107704069</v>
+        <v>-0.5989305261409873</v>
       </c>
       <c r="G89">
-        <v>-0.3344465238108869</v>
+        <v>-0.2209390996996269</v>
       </c>
       <c r="H89">
-        <v>-0.08721696446565662</v>
+        <v>-0.08001364847296481</v>
       </c>
       <c r="I89">
-        <v>0.3896791805296396</v>
+        <v>0.6327055374937556</v>
       </c>
       <c r="J89">
-        <v>-0.9707219390010916</v>
+        <v>-0.291305356229554</v>
       </c>
       <c r="K89">
-        <v>-0.3963970334354323</v>
+        <v>-0.2077112311252406</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3524,34 +3524,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.1450100100068938</v>
+        <v>-0.8006059038410306</v>
       </c>
       <c r="C90">
-        <v>0.09233635381978431</v>
+        <v>0.3274521947712244</v>
       </c>
       <c r="D90">
-        <v>-0.04469660036674907</v>
+        <v>-0.4913159809791962</v>
       </c>
       <c r="E90">
-        <v>-0.1824664593642903</v>
+        <v>-0.8498606180219235</v>
       </c>
       <c r="F90">
-        <v>-0.2249428344731109</v>
+        <v>-0.717920637475862</v>
       </c>
       <c r="G90">
-        <v>-0.1422454925109918</v>
+        <v>-0.2178885613648543</v>
       </c>
       <c r="H90">
-        <v>-0.1113405206721511</v>
+        <v>-0.4110789145650848</v>
       </c>
       <c r="I90">
-        <v>0.1604339621017615</v>
+        <v>0.3054198639190412</v>
       </c>
       <c r="J90">
-        <v>-0.09525084527720509</v>
+        <v>-0.3518776707485413</v>
       </c>
       <c r="K90">
-        <v>-0.06324790789178762</v>
+        <v>-0.5474116333267688</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3559,34 +3559,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.529857113092587</v>
+        <v>-0.2200176624983182</v>
       </c>
       <c r="C91">
-        <v>0.1121798296219191</v>
+        <v>0.05478897580875097</v>
       </c>
       <c r="D91">
-        <v>-0.2704185945592771</v>
+        <v>-0.1158069554808649</v>
       </c>
       <c r="E91">
-        <v>-0.7782806130553713</v>
+        <v>-0.2348091134355466</v>
       </c>
       <c r="F91">
-        <v>-0.6880992212360875</v>
+        <v>-0.1133423931721363</v>
       </c>
       <c r="G91">
-        <v>-0.3033227030834832</v>
+        <v>-0.1933556436915753</v>
       </c>
       <c r="H91">
-        <v>-0.2048121421824149</v>
+        <v>-0.06071486448429012</v>
       </c>
       <c r="I91">
-        <v>0.6100557307234298</v>
+        <v>0.2440758525029932</v>
       </c>
       <c r="J91">
-        <v>-1.033423084980456</v>
+        <v>-0.1320640996152427</v>
       </c>
       <c r="K91">
-        <v>-0.2943314402781671</v>
+        <v>-0.01522658035966613</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3594,34 +3594,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6314028491479815</v>
+        <v>-0.04380457909547161</v>
       </c>
       <c r="C92">
-        <v>0.3097264805765699</v>
+        <v>0.01140066660824372</v>
       </c>
       <c r="D92">
-        <v>-0.2420453508776455</v>
+        <v>-0.01917232433209146</v>
       </c>
       <c r="E92">
-        <v>-0.8493475017835193</v>
+        <v>-0.04098249241672491</v>
       </c>
       <c r="F92">
-        <v>-0.8260714683629244</v>
+        <v>-0.03464096940548613</v>
       </c>
       <c r="G92">
-        <v>-0.5038524060139442</v>
+        <v>-0.03850267203014025</v>
       </c>
       <c r="H92">
-        <v>-0.1576125699154086</v>
+        <v>-0.02836473589185159</v>
       </c>
       <c r="I92">
-        <v>0.4913118769617276</v>
+        <v>0.04267535301969186</v>
       </c>
       <c r="J92">
-        <v>-0.9174254858956155</v>
+        <v>-0.01953545823185055</v>
       </c>
       <c r="K92">
-        <v>-0.5514837283536242</v>
+        <v>-0.005724084212577686</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3629,34 +3629,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.03956403094744278</v>
+        <v>-0.004379669446974836</v>
       </c>
       <c r="C93">
-        <v>0.0080885984247131</v>
+        <v>0.001086191213193257</v>
       </c>
       <c r="D93">
-        <v>-0.02597872943513413</v>
+        <v>-0.002484747210738393</v>
       </c>
       <c r="E93">
-        <v>-0.04839001945154108</v>
+        <v>-0.003938738334034453</v>
       </c>
       <c r="F93">
-        <v>-0.03408393632867224</v>
+        <v>-0.003914642050056636</v>
       </c>
       <c r="G93">
-        <v>-0.03435307002933589</v>
+        <v>-0.003408769910441835</v>
       </c>
       <c r="H93">
-        <v>-0.02325774796488878</v>
+        <v>-0.003106425611201646</v>
       </c>
       <c r="I93">
-        <v>0.02692018814733367</v>
+        <v>0.00473053901458605</v>
       </c>
       <c r="J93">
-        <v>-0.009470595779633351</v>
+        <v>-0.002288187348075087</v>
       </c>
       <c r="K93">
-        <v>-0.01293457728858214</v>
+        <v>-0.000776628672820651</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3664,34 +3664,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.003991467945818235</v>
+        <v>-0.004607889453086071</v>
       </c>
       <c r="C94">
-        <v>0.000753757727873484</v>
+        <v>0.001100389163474535</v>
       </c>
       <c r="D94">
-        <v>-0.001918034703855405</v>
+        <v>-0.003019282239072453</v>
       </c>
       <c r="E94">
-        <v>-0.003921691635002889</v>
+        <v>-0.0045636856902765</v>
       </c>
       <c r="F94">
-        <v>-0.004930747523993527</v>
+        <v>-0.004154825910843548</v>
       </c>
       <c r="G94">
-        <v>-0.003487531419956346</v>
+        <v>-0.003680846742888307</v>
       </c>
       <c r="H94">
-        <v>-0.002696596704011444</v>
+        <v>-0.002267635665354467</v>
       </c>
       <c r="I94">
-        <v>0.003687512185307554</v>
+        <v>0.003873894013010787</v>
       </c>
       <c r="J94">
-        <v>-0.001084552144090638</v>
+        <v>-0.003032130879923649</v>
       </c>
       <c r="K94">
-        <v>-0.0007204428699039884</v>
+        <v>-0.001030123658066739</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3699,34 +3699,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.364871669285483</v>
+        <v>-0.8429649008286738</v>
       </c>
       <c r="C95">
-        <v>0.1106113526640241</v>
+        <v>0.4545967513611888</v>
       </c>
       <c r="D95">
-        <v>-0.1547907693919936</v>
+        <v>-0.7049662769451976</v>
       </c>
       <c r="E95">
-        <v>-0.409879356919197</v>
+        <v>-0.8804308386874395</v>
       </c>
       <c r="F95">
-        <v>-0.503691939610945</v>
+        <v>-0.5553501429261365</v>
       </c>
       <c r="G95">
-        <v>-0.3008392957497648</v>
+        <v>-0.1321594457301451</v>
       </c>
       <c r="H95">
-        <v>-0.1649423791494743</v>
+        <v>-0.08054109693750504</v>
       </c>
       <c r="I95">
-        <v>0.2987712155685504</v>
+        <v>0.6433016916354132</v>
       </c>
       <c r="J95">
-        <v>-0.158742019401681</v>
+        <v>-0.4359357597369499</v>
       </c>
       <c r="K95">
-        <v>-0.2244025362969601</v>
+        <v>-0.5130008622830072</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3734,34 +3734,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.5205277933807494</v>
+        <v>-0.005878517012715309</v>
       </c>
       <c r="C96">
-        <v>0.2275462302086734</v>
+        <v>0.001266505753232506</v>
       </c>
       <c r="D96">
-        <v>-0.3386506021846883</v>
+        <v>-0.002936348376819139</v>
       </c>
       <c r="E96">
-        <v>-0.8737931965591628</v>
+        <v>-0.005879654897905676</v>
       </c>
       <c r="F96">
-        <v>-0.6191542876904738</v>
+        <v>-0.004008704987843031</v>
       </c>
       <c r="G96">
-        <v>-0.5266963081659343</v>
+        <v>-0.00491781020014954</v>
       </c>
       <c r="H96">
-        <v>-0.2183020769010417</v>
+        <v>-0.002009022478915983</v>
       </c>
       <c r="I96">
-        <v>0.192821041832125</v>
+        <v>0.004570316431098663</v>
       </c>
       <c r="J96">
-        <v>-1.26882643367438</v>
+        <v>-0.002784162573120124</v>
       </c>
       <c r="K96">
-        <v>-0.6861216905587979</v>
+        <v>-0.000315056535307994</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3769,34 +3769,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.003620342595385399</v>
+        <v>-0.2007907865725771</v>
       </c>
       <c r="C97">
-        <v>0.001297614925129909</v>
+        <v>0.0806015111999259</v>
       </c>
       <c r="D97">
-        <v>-0.00135138177441143</v>
+        <v>-0.08411231685655715</v>
       </c>
       <c r="E97">
-        <v>-0.004183965930713193</v>
+        <v>-0.2788463921649929</v>
       </c>
       <c r="F97">
-        <v>-0.004522363632687965</v>
+        <v>-0.1886553975614535</v>
       </c>
       <c r="G97">
-        <v>-0.00322388968769898</v>
+        <v>-0.1204012157442859</v>
       </c>
       <c r="H97">
-        <v>-0.002543883559500139</v>
+        <v>-0.03171032931612147</v>
       </c>
       <c r="I97">
-        <v>0.003451772694756676</v>
+        <v>0.1811648023582307</v>
       </c>
       <c r="J97">
-        <v>-0.001026359766052628</v>
+        <v>-0.1272041614684032</v>
       </c>
       <c r="K97">
-        <v>-0.0002554348497109769</v>
+        <v>-0.08057603222692748</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3804,34 +3804,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.5722377794753085</v>
+        <v>-0.4989304656142174</v>
       </c>
       <c r="C98">
-        <v>0.2789849936011082</v>
+        <v>0.1346980687228078</v>
       </c>
       <c r="D98">
-        <v>-0.2047185470610235</v>
+        <v>-0.2651616208319912</v>
       </c>
       <c r="E98">
-        <v>-0.8143386490456849</v>
+        <v>-0.6201713951833578</v>
       </c>
       <c r="F98">
-        <v>-0.6768684267080999</v>
+        <v>-0.4916916441336998</v>
       </c>
       <c r="G98">
-        <v>-0.4967821808133424</v>
+        <v>-0.1028831555327185</v>
       </c>
       <c r="H98">
-        <v>-0.1833455183134584</v>
+        <v>-0.05915494613875748</v>
       </c>
       <c r="I98">
-        <v>0.3713572375475578</v>
+        <v>0.54271909037362</v>
       </c>
       <c r="J98">
-        <v>-0.3803753888420273</v>
+        <v>-0.1730052544032109</v>
       </c>
       <c r="K98">
-        <v>-0.4111553934385702</v>
+        <v>-0.1003641848087646</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3839,34 +3839,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2192234246990171</v>
+        <v>-0.7052186338348559</v>
       </c>
       <c r="C99">
-        <v>0.09418352932852256</v>
+        <v>0.2009904999255546</v>
       </c>
       <c r="D99">
-        <v>-0.1016014157857566</v>
+        <v>-0.3511845866379787</v>
       </c>
       <c r="E99">
-        <v>-0.2560937261142284</v>
+        <v>-0.691814940279031</v>
       </c>
       <c r="F99">
-        <v>-0.2260626931750132</v>
+        <v>-0.4417126021515714</v>
       </c>
       <c r="G99">
-        <v>-0.169231771808797</v>
+        <v>-0.3420503825680131</v>
       </c>
       <c r="H99">
-        <v>-0.1096384721558206</v>
+        <v>-0.1794830387008449</v>
       </c>
       <c r="I99">
-        <v>0.1744102161233658</v>
+        <v>0.5542960695943888</v>
       </c>
       <c r="J99">
-        <v>-0.06925584678614602</v>
+        <v>-0.5146983080571145</v>
       </c>
       <c r="K99">
-        <v>-0.1192139734846543</v>
+        <v>-0.1774486666898346</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3874,34 +3874,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.4990765237632641</v>
+        <v>-0.2613247286874642</v>
       </c>
       <c r="C100">
-        <v>0.1198507503099963</v>
+        <v>0.07410766750421036</v>
       </c>
       <c r="D100">
-        <v>-0.3099185024266313</v>
+        <v>-0.1133732808834266</v>
       </c>
       <c r="E100">
-        <v>-0.8104949671788287</v>
+        <v>-0.2545830090400636</v>
       </c>
       <c r="F100">
-        <v>-0.8947958232194406</v>
+        <v>-0.19854422842501</v>
       </c>
       <c r="G100">
-        <v>-0.2510383420481263</v>
+        <v>-0.1228652136765656</v>
       </c>
       <c r="H100">
-        <v>-0.09639871812434614</v>
+        <v>-0.1047305487768669</v>
       </c>
       <c r="I100">
-        <v>0.4868168131021856</v>
+        <v>0.2652188032518006</v>
       </c>
       <c r="J100">
-        <v>-1.060756719883629</v>
+        <v>-0.1746646032900969</v>
       </c>
       <c r="K100">
-        <v>-0.2935439393587145</v>
+        <v>-0.02493736187548379</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3909,34 +3909,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1596306171974373</v>
+        <v>-0.1821921183902407</v>
       </c>
       <c r="C101">
-        <v>0.02572610503429313</v>
+        <v>0.03835499105644156</v>
       </c>
       <c r="D101">
-        <v>-0.1086024333850228</v>
+        <v>-0.1056634912681435</v>
       </c>
       <c r="E101">
-        <v>-0.2280439261657956</v>
+        <v>-0.2087046800938188</v>
       </c>
       <c r="F101">
-        <v>-0.2569191955077116</v>
+        <v>-0.1916299817652993</v>
       </c>
       <c r="G101">
-        <v>-0.1163137104636121</v>
+        <v>-0.1320271556380486</v>
       </c>
       <c r="H101">
-        <v>-0.08983217088705567</v>
+        <v>-0.03080216040132273</v>
       </c>
       <c r="I101">
-        <v>0.1118778291324521</v>
+        <v>0.1975119307443518</v>
       </c>
       <c r="J101">
-        <v>-0.07329434793994133</v>
+        <v>-0.1165073510620413</v>
       </c>
       <c r="K101">
-        <v>-0.08507950710360322</v>
+        <v>-0.1391011965858945</v>
       </c>
     </row>
   </sheetData>
